--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -17,7 +17,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$5:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$5:$J$98</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="95">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,22 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改人员账号信息</t>
-    <rPh sb="0" eb="1">
-      <t>xiu g</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang hao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xin xi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改人员账号密码</t>
     <rPh sb="0" eb="1">
       <t>xiu g</t>
@@ -589,23 +573,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/v1/person/{personId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/persons/new</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/persons/{personId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/persons/{personId}/enable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/persons/{personId}/password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -827,6 +799,25 @@
 mobile: '',
 email: ''
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在开发</t>
+  </si>
+  <si>
+    <t>/rest/v1/persons/{personId}/enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/persons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/persons/{personId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/persons/accounts/password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1030,109 +1021,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1497,10 +1386,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1512,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="D1" s="11">
-        <f>COUNTIF(D6:D158, "已完成")</f>
+        <f>COUNTIF(D6:D157, "已完成")</f>
         <v>0</v>
       </c>
     </row>
@@ -1548,8 +1437,8 @@
         <v>29</v>
       </c>
       <c r="D2" s="11">
-        <f>COUNTIF(D6:D158, "正在开发")</f>
-        <v>0</v>
+        <f>COUNTIF(D6:D157, "正在开发")</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1557,8 +1446,8 @@
         <v>30</v>
       </c>
       <c r="D3" s="11">
-        <f>COUNTIF(D6:D158, "未开始")</f>
-        <v>24</v>
+        <f>COUNTIF(D6:D157, "未开始")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>39</v>
@@ -1616,10 +1505,10 @@
         <v>16</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J6" s="12"/>
     </row>
@@ -1632,7 +1521,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>40</v>
@@ -1654,16 +1543,16 @@
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>17</v>
@@ -1675,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J8" s="12"/>
     </row>
@@ -1690,10 +1579,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>17</v>
@@ -1705,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -1718,10 +1607,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>19</v>
@@ -1733,7 +1622,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -1746,10 +1635,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
@@ -1761,7 +1650,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J11" s="12"/>
     </row>
@@ -1774,10 +1663,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>17</v>
@@ -1789,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J12" s="12"/>
     </row>
@@ -1802,10 +1691,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>17</v>
@@ -1817,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1830,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>19</v>
@@ -1845,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J14" s="12"/>
     </row>
@@ -1858,10 +1747,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>32</v>
@@ -1873,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J15" s="12"/>
     </row>
@@ -1886,10 +1775,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>31</v>
@@ -1901,7 +1790,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J16" s="12"/>
     </row>
@@ -1914,10 +1803,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>17</v>
@@ -1942,10 +1831,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>32</v>
@@ -1960,9 +1849,11 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>18</v>
@@ -1971,10 +1862,10 @@
         <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>16</v>
@@ -1985,10 +1876,8 @@
       <c r="I19" s="20"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>56</v>
-      </c>
+    <row r="20" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
         <v>57</v>
       </c>
@@ -1999,7 +1888,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>17</v>
@@ -2013,7 +1902,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="12" t="s">
         <v>58</v>
@@ -2025,10 +1914,10 @@
         <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>16</v>
@@ -2039,9 +1928,9 @@
       <c r="I21" s="20"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -2051,10 +1940,10 @@
         <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>16</v>
@@ -2068,7 +1957,7 @@
     <row r="23" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>18</v>
@@ -2077,10 +1966,10 @@
         <v>36</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>16</v>
@@ -2091,10 +1980,10 @@
       <c r="I23" s="20"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>18</v>
@@ -2103,10 +1992,10 @@
         <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>16</v>
@@ -2119,7 +2008,7 @@
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -2129,10 +2018,10 @@
         <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>16</v>
@@ -2143,7 +2032,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="12" t="s">
         <v>62</v>
@@ -2155,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>16</v>
@@ -2169,7 +2058,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="12" t="s">
         <v>63</v>
@@ -2181,10 +2070,10 @@
         <v>36</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>16</v>
@@ -2198,7 +2087,7 @@
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>18</v>
@@ -2207,10 +2096,10 @@
         <v>36</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>16</v>
@@ -2223,31 +2112,17 @@
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15"/>
@@ -2255,8 +2130,8 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,10 +2143,10 @@
       <c r="F31" s="12"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="12"/>
       <c r="C32" s="15"/>
@@ -2279,11 +2154,11 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="24"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="12"/>
       <c r="C33" s="15"/>
@@ -2291,8 +2166,8 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2307,7 +2182,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="12"/>
       <c r="C35" s="15"/>
@@ -2315,8 +2190,8 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,11 +2202,11 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="12"/>
       <c r="C37" s="15"/>
@@ -2340,7 +2215,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2369,7 +2244,7 @@
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="15"/>
       <c r="D40" s="21"/>
       <c r="E40" s="12"/>
@@ -2381,7 +2256,7 @@
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="15"/>
       <c r="D41" s="21"/>
       <c r="E41" s="12"/>
@@ -2399,25 +2274,25 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="15"/>
       <c r="D43" s="21"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="20"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="15"/>
       <c r="D44" s="21"/>
       <c r="E44" s="12"/>
@@ -2427,7 +2302,7 @@
       <c r="I44" s="20"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="12"/>
       <c r="C45" s="15"/>
@@ -2435,7 +2310,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="12"/>
     </row>
@@ -2447,7 +2322,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="20"/>
       <c r="J46" s="12"/>
     </row>
@@ -2460,7 +2335,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2472,7 +2347,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2484,7 +2359,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2508,7 +2383,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2518,8 +2393,8 @@
       <c r="D52" s="21"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="12"/>
     </row>
@@ -2530,7 +2405,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="12"/>
@@ -2578,7 +2453,7 @@
       <c r="D57" s="21"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="12"/>
@@ -2590,7 +2465,7 @@
       <c r="D58" s="21"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="12"/>
@@ -2664,7 +2539,7 @@
       <c r="F64" s="12"/>
       <c r="G64" s="19"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="19"/>
       <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2676,7 +2551,7 @@
       <c r="F65" s="12"/>
       <c r="G65" s="19"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="19"/>
+      <c r="I65" s="20"/>
       <c r="J65" s="12"/>
     </row>
     <row r="66" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,8 +2586,8 @@
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="19"/>
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,8 +2598,8 @@
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="19"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
       <c r="J69" s="12"/>
     </row>
     <row r="70" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2736,7 +2611,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="19"/>
       <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,7 +2623,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="19"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2759,7 +2634,7 @@
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="20"/>
+      <c r="H72" s="19"/>
       <c r="I72" s="20"/>
       <c r="J72" s="12"/>
     </row>
@@ -2771,7 +2646,7 @@
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
+      <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="12"/>
     </row>
@@ -2819,13 +2694,13 @@
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="20"/>
+      <c r="H77" s="19"/>
       <c r="I77" s="20"/>
       <c r="J77" s="12"/>
     </row>
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
-      <c r="B78" s="12"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="15"/>
       <c r="D78" s="21"/>
       <c r="E78" s="12"/>
@@ -2837,29 +2712,29 @@
     </row>
     <row r="79" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="15"/>
       <c r="D79" s="21"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
-      <c r="B80" s="12"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="15"/>
       <c r="D80" s="21"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
+      <c r="I80" s="20"/>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="16"/>
       <c r="C81" s="15"/>
@@ -2867,11 +2742,11 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="16"/>
       <c r="C82" s="15"/>
@@ -2879,7 +2754,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="19"/>
-      <c r="H82" s="20"/>
+      <c r="H82" s="19"/>
       <c r="I82" s="20"/>
       <c r="J82" s="12"/>
     </row>
@@ -2919,7 +2794,7 @@
       <c r="I85" s="20"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="16"/>
       <c r="C86" s="15"/>
@@ -2928,7 +2803,7 @@
       <c r="F86" s="12"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="20"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,7 +2818,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="16"/>
       <c r="C88" s="15"/>
@@ -2952,7 +2827,7 @@
       <c r="F88" s="12"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
+      <c r="I88" s="20"/>
       <c r="J88" s="12"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,7 +2866,7 @@
       <c r="I91" s="20"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="16"/>
       <c r="C92" s="15"/>
@@ -3003,7 +2878,7 @@
       <c r="I92" s="20"/>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="16"/>
       <c r="C93" s="15"/>
@@ -3015,28 +2890,28 @@
       <c r="I93" s="20"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="15"/>
       <c r="D94" s="21"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="20"/>
+      <c r="I94" s="19"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
-      <c r="B95" s="17"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="15"/>
       <c r="D95" s="21"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
+      <c r="I95" s="20"/>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3047,11 +2922,11 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="19"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="8"/>
       <c r="C97" s="15"/>
@@ -3059,44 +2934,32 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="20"/>
+      <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="15"/>
       <c r="D98" s="21"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
+      <c r="I98" s="20"/>
       <c r="J98" s="12"/>
-    </row>
-    <row r="99" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C98">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D98">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F98">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,10 +625,6 @@
     <rPh sb="7" eb="8">
       <t>gogn gao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v2/chatrooms/{chatroomId}/notices</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -818,6 +814,43 @@
   </si>
   <si>
     <t>/rest/v1/persons/accounts/password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置在本聊天室中的状态</t>
+    <rPh sb="0" eb="1">
+      <t>she zh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuang t</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatrooms/{chatroomId}/notices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatrooms/{chatroomId}/members/{accountId}/status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1386,10 +1419,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1403,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1480,7 @@
       </c>
       <c r="D3" s="11">
         <f>COUNTIF(D6:D157, "未开始")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,7 +1526,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>39</v>
@@ -1505,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="J6" s="12"/>
     </row>
@@ -1521,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>40</v>
@@ -1549,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>65</v>
@@ -1564,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="12"/>
     </row>
@@ -1579,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>66</v>
@@ -1594,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -1607,7 +1640,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -1622,7 +1655,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -1635,7 +1668,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>67</v>
@@ -1650,7 +1683,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="12"/>
     </row>
@@ -1663,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>67</v>
@@ -1678,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="12"/>
     </row>
@@ -1691,10 +1724,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>17</v>
@@ -1706,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1719,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>69</v>
@@ -1734,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="12"/>
     </row>
@@ -1747,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>70</v>
@@ -1762,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="12"/>
     </row>
@@ -1775,10 +1808,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>31</v>
@@ -1790,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="12"/>
     </row>
@@ -1803,10 +1836,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>17</v>
@@ -1831,10 +1864,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>32</v>
@@ -2096,7 +2129,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>17</v>
@@ -2112,13 +2145,27 @@
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="20"/>
       <c r="J29" s="12"/>
     </row>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="16920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
     <sheet name="SERVICE 接口设计" sheetId="2" r:id="rId2"/>
-    <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId3"/>
+    <sheet name="后台任务 设计" sheetId="8" r:id="rId3"/>
+    <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$5:$J$98</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -851,6 +852,70 @@
   </si>
   <si>
     <t>PUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化任务</t>
+    <rPh sb="0" eb="1">
+      <t>chu shi h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置角色字典数据（Administrator、User）</t>
+    <rPh sb="0" eb="1">
+      <t>nei zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置管理员账户字典数据（Administrator）</t>
+    <rPh sb="0" eb="1">
+      <t>nei zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan li y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>z h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置账户状态字典数据（online、offline、hidden、stepOut）</t>
+    <rPh sb="0" eb="1">
+      <t>nei zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu ju</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1436,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3017,6 +3082,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23500" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21620" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$31</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,9 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>登录系统</t>
     <rPh sb="0" eb="1">
       <t>deng lu</t>
@@ -590,27 +587,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/v1/chatrooms/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/{chatroomId}/members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/{chatroomId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/{chatroomId}/accounts/{accountId}/unread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE</t>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/{chatroomId}/notices/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取聊天室所有公告</t>
@@ -747,18 +724,6 @@
     <rPh sb="9" eb="10">
       <t>zhuang t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/{chatroomId}/notices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/{chatroomId}/members/{accountId}/status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1681,6 +1646,161 @@
     <rPh sb="22" eb="23">
       <t>li k</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountId}/unread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/notices/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/notices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶本聊天室</t>
+    <rPh sb="0" eb="1">
+      <t>zhi din</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao tian shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前聊天室置顶</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+accountId: '',
+status: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+accountId: '',
+top: true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+name: '',
+desc: '',
+creator: {
+id: '',
+code: '',
+nickName: '',
+eiimCode: ''
+},
+members: [{
+id: '',
+status: '',
+account: {}
+}]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+status: '',
+account: {},
+lastAccessTime: 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+status: '',
+account: {},
+lastAccessTime: 0,
+isTop: true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+messageType: '',
+message: '',
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+name: '',
+nickname: '',
+...
+}
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+chatRoomId: '',
+noticeType: '',
+notice: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+noticeType: '',
+notice: '',
+publishTime: 0
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+name: '',
+addAccountIds: ['', '', ''],
+delAccountIds: ['', '']
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2156,7 +2276,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2235,10 +2355,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2376,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2295,11 +2415,11 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D3" s="20">
         <f>COUNTIF(D7:D99, "未测试")</f>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2308,12 +2428,12 @@
       </c>
       <c r="D4" s="20">
         <f>COUNTIF(D7:D99, "未开始")</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>20</v>
@@ -2345,19 +2465,19 @@
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>19</v>
@@ -2366,28 +2486,28 @@
         <v>16</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>17</v>
@@ -2402,22 +2522,22 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>17</v>
@@ -2429,27 +2549,27 @@
         <v>16</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>17</v>
@@ -2461,25 +2581,25 @@
         <v>16</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>19</v>
@@ -2488,28 +2608,28 @@
         <v>16</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>32</v>
@@ -2518,28 +2638,28 @@
         <v>16</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>17</v>
@@ -2551,25 +2671,25 @@
         <v>16</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>17</v>
@@ -2581,25 +2701,25 @@
         <v>16</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>19</v>
@@ -2608,28 +2728,28 @@
         <v>16</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>32</v>
@@ -2638,28 +2758,28 @@
         <v>16</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>31</v>
@@ -2671,25 +2791,25 @@
         <v>16</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>17</v>
@@ -2701,25 +2821,25 @@
         <v>16</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>32</v>
@@ -2728,30 +2848,30 @@
         <v>16</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I19" s="14" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>17</v>
@@ -2762,24 +2882,26 @@
       <c r="H20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="J20" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>17</v>
@@ -2790,24 +2912,26 @@
       <c r="H21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>19</v>
@@ -2816,26 +2940,28 @@
         <v>16</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="J22" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
@@ -2844,26 +2970,28 @@
         <v>16</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>17</v>
@@ -2874,24 +3002,26 @@
       <c r="H24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="J24" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>32</v>
@@ -2900,11 +3030,13 @@
         <v>16</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="J25" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2916,13 +3048,13 @@
         <v>18</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>16</v>
@@ -2930,80 +3062,86 @@
       <c r="H26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="I26" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J26" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="J27" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="J28" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>17</v>
@@ -3014,27 +3152,29 @@
       <c r="H29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="J29" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>16</v>
@@ -3042,22 +3182,42 @@
       <c r="H30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="J30" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
@@ -3876,19 +4036,20 @@
       <c r="J99" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:J31"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D99">
+      <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D31">
+      <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C99">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D99">
-      <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F99">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D30">
-      <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3901,7 +4062,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3912,20 +4073,20 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,10 +695,6 @@
   </si>
   <si>
     <t>/rest/v1/persons/{personId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/persons/accounts/password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1026,14 +1022,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-accountId: '',
-oldPassword: '',
-newPassword: ''
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用用户名/口令登入系统</t>
     <rPh sb="0" eb="1">
       <t>shi yon</t>
@@ -1800,6 +1788,21 @@
 name: '',
 addAccountIds: ['', '', ''],
 delAccountIds: ['', '']
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>/rest/v1/accounts/password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+accountCode: '',
+oldPassword: '',
+newPassword: ''
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2373,10 +2376,10 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2401,7 +2404,7 @@
       </c>
       <c r="D1" s="20">
         <f>COUNTIF(D7:D99, "已完成")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,11 +2418,11 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="20">
         <f>COUNTIF(D7:D99, "未测试")</f>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2474,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>38</v>
@@ -2486,13 +2489,13 @@
         <v>16</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="J7" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2504,7 +2507,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>39</v>
@@ -2522,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2534,7 +2537,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>64</v>
@@ -2549,10 +2552,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,7 +2569,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>65</v>
@@ -2581,10 +2584,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2596,7 +2599,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>67</v>
@@ -2608,13 +2611,13 @@
         <v>16</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2626,7 +2629,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
@@ -2638,13 +2641,13 @@
         <v>16</v>
       </c>
       <c r="H12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,7 +2659,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>66</v>
@@ -2671,10 +2674,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,7 +2689,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>77</v>
@@ -2701,10 +2704,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>68</v>
@@ -2728,13 +2731,13 @@
         <v>16</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2746,7 +2749,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
@@ -2758,13 +2761,13 @@
         <v>16</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>78</v>
@@ -2791,10 +2794,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2806,7 +2809,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>76</v>
@@ -2821,10 +2824,10 @@
         <v>16</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,10 +2839,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>32</v>
@@ -2848,13 +2851,13 @@
         <v>16</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="I19" s="14" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2868,7 +2871,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>70</v>
@@ -2883,10 +2886,10 @@
         <v>16</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,7 +2901,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>71</v>
@@ -2913,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2928,10 +2931,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>19</v>
@@ -2940,13 +2943,13 @@
         <v>16</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2958,10 +2961,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
@@ -2970,13 +2973,13 @@
         <v>16</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,10 +2991,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>17</v>
@@ -3003,10 +3006,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3018,10 +3021,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>32</v>
@@ -3030,13 +3033,13 @@
         <v>16</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,10 +3051,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>72</v>
@@ -3066,22 +3069,22 @@
         <v>1</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>32</v>
@@ -3090,28 +3093,28 @@
         <v>16</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>32</v>
@@ -3120,13 +3123,13 @@
         <v>16</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,10 +3141,10 @@
         <v>18</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>17</v>
@@ -3153,10 +3156,10 @@
         <v>16</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,10 +3171,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>17</v>
@@ -3183,10 +3186,10 @@
         <v>16</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3198,10 +3201,10 @@
         <v>18</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>19</v>
@@ -3210,13 +3213,13 @@
         <v>16</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I31" s="14" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4073,20 +4076,20 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="142">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,71 +858,6 @@
   </si>
   <si>
     <t>{
-parentId: '',
-id:'', // id必须为空
-code: '',
-name: '',
-type: '',
-managerId: ''
-desc: '',
-employeeIds: '' // 逗号分隔的ID
-}</t>
-    <rPh sb="28" eb="29">
-      <t>bi xu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>kong</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>dou hao</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>fen ge</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-parentId: '',
-id:'', // id必须不为空
-code: '',
-name: '',
-type: '',
-managerId: ''
-desc: '',
-employeeIds: '' // 逗号分隔的ID
-}</t>
-    <rPh sb="28" eb="29">
-      <t>bi xu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>kong</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>dou hao</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>fen ge</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 id:'',
 code: '',
 name: '',
@@ -1795,15 +1730,49 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>/rest/v1/accounts/password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 accountCode: '',
 oldPassword: '',
 newPassword: ''
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/persons/account/password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"accountCode": "pengmx",
+"password": "12345678",
+"nickname": "john.peng",
+"avatar": pengmx.png"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+parentId: '',
+id:'', // id必须为空
+code: '',
+name: '',
+type: '',
+managerId: ''
+employeeIds: ['', '']
+}</t>
+    <rPh sb="28" eb="29">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/members</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2376,10 +2345,10 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2404,7 +2373,7 @@
       </c>
       <c r="D1" s="20">
         <f>COUNTIF(D7:D99, "已完成")</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,11 +2387,11 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="20">
         <f>COUNTIF(D7:D99, "未测试")</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2477,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>38</v>
@@ -2495,7 +2464,7 @@
         <v>85</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,7 +2476,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>39</v>
@@ -2525,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2537,7 +2506,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>64</v>
@@ -2555,7 +2524,7 @@
         <v>85</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>65</v>
@@ -2587,7 +2556,7 @@
         <v>86</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2599,7 +2568,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>67</v>
@@ -2611,13 +2580,13 @@
         <v>16</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2629,7 +2598,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
@@ -2641,13 +2610,13 @@
         <v>16</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2659,7 +2628,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>66</v>
@@ -2674,10 +2643,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2689,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>77</v>
@@ -2704,10 +2673,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2719,7 +2688,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>68</v>
@@ -2731,13 +2700,13 @@
         <v>16</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2749,7 +2718,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
@@ -2761,13 +2730,13 @@
         <v>16</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,7 +2748,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>78</v>
@@ -2794,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,25 +2778,25 @@
         <v>18</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,10 +2808,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>32</v>
@@ -2851,13 +2820,13 @@
         <v>16</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I19" s="14" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2871,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>70</v>
@@ -2886,10 +2855,10 @@
         <v>16</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>71</v>
@@ -2916,10 +2885,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,10 +2900,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>19</v>
@@ -2943,13 +2912,13 @@
         <v>16</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2961,10 +2930,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
@@ -2973,13 +2942,13 @@
         <v>16</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,10 +2960,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>17</v>
@@ -3006,10 +2975,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,10 +2990,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>32</v>
@@ -3033,13 +3002,13 @@
         <v>16</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,10 +3020,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>72</v>
@@ -3069,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,10 +3050,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>32</v>
@@ -3093,28 +3062,28 @@
         <v>16</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>32</v>
@@ -3123,13 +3092,13 @@
         <v>16</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,10 +3110,10 @@
         <v>18</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>17</v>
@@ -3156,10 +3125,10 @@
         <v>16</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,10 +3140,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>17</v>
@@ -3186,10 +3155,10 @@
         <v>16</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3201,10 +3170,10 @@
         <v>18</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>19</v>
@@ -3213,13 +3182,13 @@
         <v>16</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I31" s="14" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="143">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1629,24 +1629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/v1/chatRooms/{chatRoomId}/status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-accountId: '',
-status: ''
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-accountId: '',
-top: true
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{
 id: '',
 name: '',
@@ -1718,15 +1700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-id: '',
-name: '',
-addAccountIds: ['', '', ''],
-delAccountIds: ['', '']
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -1773,6 +1746,42 @@
   </si>
   <si>
     <t>/rest/v1/chatRooms/{chatRoomId}/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+name: '',
+addAccountCodes: ['', '', ''],
+delAccountCodes: ['', '']
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+name: '',
+addAccounCodes: ['', '', ''],
+delAccountCodes: ['', '']
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+accountCode: '',
+status: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+accountCode: '',
+top: true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/member/status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,13 +2351,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2373,7 +2383,7 @@
       </c>
       <c r="D1" s="20">
         <f>COUNTIF(D7:D99, "已完成")</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,7 +2401,7 @@
       </c>
       <c r="D3" s="20">
         <f>COUNTIF(D7:D99, "未测试")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,7 +2445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
@@ -2446,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>38</v>
@@ -2467,7 +2477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
         <v>37</v>
@@ -2476,7 +2486,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>39</v>
@@ -2497,7 +2507,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>53</v>
@@ -2506,7 +2516,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>64</v>
@@ -2527,7 +2537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>42</v>
       </c>
@@ -2538,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>65</v>
@@ -2559,7 +2569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>44</v>
@@ -2568,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>67</v>
@@ -2580,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>87</v>
@@ -2589,7 +2599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>45</v>
@@ -2598,7 +2608,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
@@ -2610,7 +2620,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>87</v>
@@ -2619,7 +2629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>50</v>
@@ -2628,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>66</v>
@@ -2649,7 +2659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>46</v>
@@ -2658,7 +2668,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>77</v>
@@ -2679,7 +2689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>47</v>
@@ -2688,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>68</v>
@@ -2709,7 +2719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
         <v>48</v>
@@ -2718,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
@@ -2739,7 +2749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
         <v>49</v>
@@ -2748,7 +2758,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>78</v>
@@ -2769,7 +2779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
         <v>51</v>
@@ -2778,7 +2788,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>76</v>
@@ -2790,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>91</v>
@@ -2799,7 +2809,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
         <v>52</v>
@@ -2808,10 +2818,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>32</v>
@@ -2820,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I19" s="14" t="b">
         <v>1</v>
@@ -2829,7 +2839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>54</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>70</v>
@@ -2855,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>106</v>
@@ -2885,13 +2895,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>57</v>
@@ -2900,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>117</v>
@@ -2912,16 +2922,16 @@
         <v>16</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
         <v>58</v>
@@ -2930,10 +2940,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
@@ -2942,16 +2952,16 @@
         <v>16</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="6" t="s">
         <v>63</v>
@@ -2960,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>118</v>
@@ -2975,13 +2985,13 @@
         <v>16</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
         <v>59</v>
@@ -2990,7 +3000,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>119</v>
@@ -3002,10 +3012,10 @@
         <v>16</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>111</v>
@@ -3041,7 +3051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
         <v>79</v>
@@ -3050,10 +3060,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>32</v>
@@ -3062,16 +3072,16 @@
         <v>16</v>
       </c>
       <c r="H27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
         <v>123</v>
@@ -3080,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>124</v>
@@ -3092,10 +3102,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>125</v>
@@ -3125,7 +3135,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>112</v>
@@ -3155,7 +3165,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>115</v>
@@ -3182,7 +3192,7 @@
         <v>16</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I31" s="14" t="b">
         <v>1</v>
@@ -4008,7 +4018,13 @@
       <c r="J99" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J31"/>
+  <autoFilter ref="A6:J31">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="未测试"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D99">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,31 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Public Response createStore(StoreInfoRequest request){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public Response getStore(@QueryParam (“uuid”) String uuid){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public Response deleteStore(@QueryParam(“uuid”) String uuid){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public Response updateStore(@PathParam(“uuid”) String uuid,StoreInfoRequest request){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交数据，如插入操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restful请求返回规范</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1463,22 +1443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除指定的聊天室</t>
-    <rPh sb="0" eb="1">
-      <t>shan chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi ding</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>liao tian shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为指定的聊天室发布一个公告</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -1784,12 +1748,414 @@
     <t>/rest/v1/chatRooms/{chatRoomId}/member/status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定的聊天室，仅仅是从该聊天室中将该member的valid设置为false</t>
+    <rPh sb="0" eb="1">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>she zh</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <rPh sb="0" eb="1">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应消息体</t>
+    <rPh sb="0" eb="1">
+      <t>xiang ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao xi ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求消息体</t>
+    <rPh sb="0" eb="1">
+      <t>qing qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础模块</t>
+    <rPh sb="0" eb="1">
+      <t>ji chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册消息</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天室模块</t>
+    <rPh sb="0" eb="1">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送聊天消息</t>
+    <rPh sb="0" eb="1">
+      <t>f s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收聊天消息</t>
+    <rPh sb="0" eb="1">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收通知消息</t>
+    <rPh sb="0" eb="1">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Path("stores")
+@GET
+Public Response getStore(@QueryParam (“uuid”) String uuid){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Path("stores/{uuid}")
+@DELETE
+Public Response deleteStore(@PathParam(“uuid”) String uuid){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Path("stores/{uuid}")
+@PUT
+Public Response updateStore(@PathParam(“uuid”) String uuid,StoreInfoFormVO vo){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Path("stores/new")
+@POST
+Public Response createStore(StoreInfoFormVO vo){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restful请求
+返回规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <rPh sb="0" eb="1">
+      <t>ren wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <rPh sb="0" eb="1">
+      <t>ren w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有字典数据</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定分类的字典数据</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen lei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定分类和代码的字典数据</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/baseDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/baseDatas/{baseDataCategoryCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/baseDatas/{baseDataCategoryCode}/items/{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+code: '',
+name: '',
+value: '',
+parentCode: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+code: '',
+name: '',
+value: '',
+parentCode: ''
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+code: '',
+name: '',
+items: [{
+code: '',
+name: '',
+value: '',
+parentCode: ''
+}]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有字典数据集合，包括分类及其详细内容</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fen lei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji qi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiang xi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定分类的字典数据列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lie b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定分类和字典代码的字典数据</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen lei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1799,15 +2165,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1849,6 +2206,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1856,12 +2230,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1875,8 +2243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1899,32 +2273,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,7 +2334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1951,21 +2349,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2254,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2268,78 +2705,83 @@
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>75</v>
+      <c r="D6" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2351,1692 +2793,1775 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="33" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="19" customWidth="1"/>
-    <col min="10" max="10" width="50.5" style="19" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="19"/>
+    <col min="1" max="1" width="13.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="33" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="14" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20">
-        <f>COUNTIF(D7:D99, "已完成")</f>
+      <c r="C1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15">
+        <f>COUNTIF(D7:D102, "已完成")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="15">
+        <f>COUNTIF(D7:D102, "正在开发")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="15">
+        <f>COUNTIF(D7:D102, "未测试")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15">
+        <f>COUNTIF(D7:D102, "未开始")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="20">
-        <f>COUNTIF(D7:D99, "正在开发")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="22" t="s">
+      <c r="I6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="20">
-        <f>COUNTIF(D7:D99, "未测试")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="20">
-        <f>COUNTIF(D7:D99, "未开始")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="G22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="I25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="14" t="b">
+      <c r="I28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="J29" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="F30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="14" t="b">
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="J34" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="9"/>
-    </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="9"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="9"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="9"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="9"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="9"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="9"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="9"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="9"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="8"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J31">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="未测试"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:J34"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D102">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D34">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C102">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F102">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4047,35 +4572,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4085,12 +4660,155 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21620" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18280" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,86 +582,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>gogn gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：</t>
-    <rPh sb="0" eb="1">
-      <t>zhu yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除登录请求外，所有的RESTful请求必须在HTTP请求头中加入“token”或“Authorization”，其值为登录成功后本地缓存的token。</t>
-    <rPh sb="0" eb="1">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>deng lu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qing qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qing qiu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bi xu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>qing qiu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>tou</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jia ru</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>deng lu</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>cheng gong</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ben di</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>huan c</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1812,23 +1732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>响应消息体</t>
-    <rPh sb="0" eb="1">
-      <t>xiang ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao xi ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求消息体</t>
-    <rPh sb="0" eb="1">
-      <t>qing qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <rPh sb="0" eb="1">
       <t>miao shu</t>
@@ -2150,12 +2053,776 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2、推送服务器依赖于mx-notify-server进行业务定制</t>
+    <rPh sb="2" eb="3">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu w qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi lai yu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jin x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ye w</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ding zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、消息结构依赖于mx-notify-server定义的命令对象结构和消息对象结构</t>
+    <rPh sb="2" eb="3">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi lai y</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ding yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>he</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xiao x</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>jie g</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据对象设计</t>
+    <rPh sb="0" eb="1">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she j</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "command": "notify",
+    "type": "user",
+    "payload": {
+        // 载荷数据对象
+    }
+}</t>
+    <rPh sb="75" eb="76">
+      <t>zai he</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "messageId": "newIncidents",
+    "messageVersion": "1.0",
+    "data": {
+        // 业务消息数据
+    }
+}</t>
+    <rPh sb="89" eb="90">
+      <t>ye w</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>xiao x</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般仅用于推送消息</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据业务需要定制</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ding zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、EIIM的前端实时消息采用WebSocket方式进行推送：包括各种通知、聊天内容推送等。</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qian d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cai yong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jin x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ge zh</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>tui s</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令对象</t>
+    <rPh sb="0" eb="1">
+      <t>ming l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息对象</t>
+    <rPh sb="0" eb="1">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：</t>
+    <rPh sb="0" eb="1">
+      <t>zhu yi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>除登录请求外，所有的RESTful请求必须在HTTP请求头中加入“token”或“Authorization”，其值为登录成功后本地缓存的token。</t>
+    <rPh sb="0" eb="1">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>cheng gong</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ben di</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>huan c</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期报位置消息</t>
+    <rPh sb="0" eb="1">
+      <t>ding qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket设计约束</t>
+    <rPh sb="9" eb="10">
+      <t>she j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yue s</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务消息数据</t>
+    <rPh sb="0" eb="1">
+      <t>ye w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP连接好WebSocket通道后，应马上发送注册消息，向后台WebSocket服务器注册该终端。
+注册终端需要提供该终端的EiimCode和登录的Token</t>
+    <rPh sb="3" eb="4">
+      <t>lian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tong dao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ma sh</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xiao x</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hou tai</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fu w q</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>zhong d</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>de</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>he</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP应每隔一个周期（常规15秒）向后台WebSocket服务器报送一次状态和位置的消息。</t>
+    <rPh sb="3" eb="4">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhou qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chang g</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hou tai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fu w q</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bao song</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>he</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wei zhi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>de</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务器必要的时候向APP推送通知数据。</t>
+    <rPh sb="0" eb="1">
+      <t>hou tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu w q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi yao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务器必要的时候向APP推送聊天消息。</t>
+    <rPh sb="0" eb="1">
+      <t>hou t</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu w q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi y</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xiao x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP在需要时向WebSocket发送聊天消息。</t>
+    <rPh sb="3" eb="4">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fa s</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <rPh sb="0" eb="1">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <rPh sb="0" eb="1">
+      <t>fa s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+  </si>
+  <si>
+    <t>发送消息体</t>
+    <rPh sb="0" eb="1">
+      <t>fa s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收消息体</t>
+    <rPh sb="0" eb="1">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao xi ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销消息</t>
+    <rPh sb="0" eb="1">
+      <t>zhu xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>{
+command: 'registry',
+type: 'SYSTEM',
+payload: {
+deviceId: '',
+state: '',
+longtitude: 0.0,
+latitude: 0.0,
+extraData: {
+accountCode: '',
+eiimCode: '',
+token: ''
+}
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+command: 'unregistry',
+type: 'SYSTEM',
+payload: {
+deviceId: ''
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+command: 'ping',
+type: 'SYSTEM',
+payload: {
+deviceId: '',
+state: '',
+longtitude: 0.0,
+latitude: 0.0,
+extraData: {
+accountCode: '',
+eiimCode: '',
+token: ''
+}
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+srcCommand: 'registry'
+deviceId: '',
+status: '',
+error: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+srcCommand: 'unregistry'
+deviceId: '',
+status: '',
+error: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+srcCommand: 'ping'
+deviceId: '',
+status: '',
+error: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: '',
+messageVersion: '',
+message: {
+…...
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+command: 'sendChatMessage',
+type: 'USER',
+payload: {
+deviceId: '',
+eiimCode: '',
+accountCode: '',
+chatRoomId: '',
+messageType: '',
+message: ''
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于deviceId的规则</t>
+    <rPh sb="0" eb="1">
+      <t>guan yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动终端：accountCode.mobile
+PC端：accountCode.pc</t>
+    <rPh sb="0" eb="1">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn duan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+srcCommand: 'sendChatMessage',
+deviceId: '',
+status: '',
+error: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: 'chatMessage',
+messageVersion: '1.0',
+message: {
+chatRoomId: '',
+messageType: '',
+message: '',
+accountCode: '',
+eiimCode: '',
+sentTime: 0
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,13 +2859,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2223,8 +2883,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2246,6 +2938,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2314,7 +3012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2349,7 +3047,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2359,13 +3056,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2374,7 +3071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2383,7 +3080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2401,8 +3098,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2691,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2702,89 +3429,178 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="76.5" customWidth="1"/>
+    <col min="4" max="4" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="2:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>70</v>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B21" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2796,93 +3612,93 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="13.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="13" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="14">
         <f>COUNTIF(D7:D102, "已完成")</f>
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <f>COUNTIF(D7:D102, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="14">
         <f>COUNTIF(D7:D102, "未测试")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>COUNTIF(D7:D102, "未开始")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2897,7 +3713,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -2909,13 +3725,13 @@
         <v>11</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2927,7 +3743,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
@@ -2945,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2957,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -2972,25 +3788,25 @@
         <v>11</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3002,25 +3818,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -3032,25 +3848,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3062,10 +3878,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3079,7 +3895,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -3094,10 +3910,10 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3109,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -3121,13 +3937,13 @@
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3139,7 +3955,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -3151,13 +3967,13 @@
         <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,7 +3985,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>61</v>
@@ -3184,10 +4000,10 @@
         <v>11</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,10 +4015,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -3214,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3229,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -3241,13 +4057,13 @@
         <v>11</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3259,7 +4075,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>64</v>
@@ -3271,13 +4087,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3289,10 +4105,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -3304,10 +4120,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3319,10 +4135,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
@@ -3331,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3349,10 +4165,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -3361,13 +4177,13 @@
         <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,7 +4197,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>65</v>
@@ -3396,10 +4212,10 @@
         <v>11</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>66</v>
@@ -3426,10 +4242,10 @@
         <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3441,10 +4257,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
@@ -3453,13 +4269,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3471,10 +4287,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
@@ -3483,13 +4299,13 @@
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3501,10 +4317,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -3516,10 +4332,10 @@
         <v>11</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3531,10 +4347,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
@@ -3543,13 +4359,13 @@
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3561,10 +4377,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>67</v>
@@ -3579,22 +4395,22 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
@@ -3603,28 +4419,28 @@
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -3633,13 +4449,13 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,10 +4467,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -3666,10 +4482,10 @@
         <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3681,10 +4497,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -3696,10 +4512,10 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,10 +4527,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>14</v>
@@ -3723,13 +4539,13 @@
         <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I34" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3741,7 +4557,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4585,72 +5401,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>155</v>
+      <c r="A1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4660,156 +5476,245 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="2" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="B6" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
+      <formula1>"发送,接收"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="202">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,10 +560,6 @@
   </si>
   <si>
     <t>/rest/v1/chatrooms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatrooms/accounts/{accountId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,9 +779,6 @@
   </si>
   <si>
     <t>未测试</t>
-  </si>
-  <si>
-    <t>未测试</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
     </rPh>
@@ -1468,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountId}/unread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/chatRooms/{chatRoomId}/notices/new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1666,10 +1655,6 @@
   </si>
   <si>
     <t>/rest/v1/chatRooms/{chatRoomId}/member/status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2815,6 +2800,18 @@
 sentTime: 0
 }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountCode}/unread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatrooms/accounts/{accountCode}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3119,17 +3116,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3451,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3462,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3473,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3484,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,7 +3491,7 @@
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>28</v>
@@ -3505,10 +3502,10 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -3520,31 +3517,31 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
@@ -3553,46 +3550,46 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D19" s="35"/>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>200</v>
+      <c r="B21" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3612,10 +3609,10 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3640,7 +3637,7 @@
       </c>
       <c r="D1" s="14">
         <f>COUNTIF(D7:D102, "已完成")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3654,11 +3651,11 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(D7:D102, "未测试")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3713,7 +3710,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -3725,13 +3722,13 @@
         <v>11</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
@@ -3761,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3773,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -3788,25 +3785,25 @@
         <v>11</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3818,25 +3815,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -3848,25 +3845,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3878,10 +3875,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3895,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -3910,10 +3907,10 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3922,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -3937,13 +3934,13 @@
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3955,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -3967,13 +3964,13 @@
         <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3985,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>61</v>
@@ -4000,10 +3997,10 @@
         <v>11</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4015,10 +4012,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -4030,10 +4027,10 @@
         <v>11</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4045,7 +4042,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -4057,13 +4054,13 @@
         <v>11</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4075,7 +4072,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>64</v>
@@ -4087,13 +4084,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,10 +4102,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -4120,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4135,10 +4132,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
@@ -4147,13 +4144,13 @@
         <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4165,10 +4162,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4177,13 +4174,13 @@
         <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4197,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>65</v>
@@ -4212,10 +4209,10 @@
         <v>11</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4227,10 +4224,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4242,10 +4239,10 @@
         <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,10 +4254,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
@@ -4269,13 +4266,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4287,10 +4284,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
@@ -4299,13 +4296,13 @@
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4317,10 +4314,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -4332,10 +4329,10 @@
         <v>11</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,10 +4344,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
@@ -4359,13 +4356,13 @@
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4377,13 +4374,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
@@ -4395,22 +4392,22 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
@@ -4419,28 +4416,28 @@
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4449,13 +4446,13 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4467,10 +4464,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -4482,25 +4479,25 @@
         <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -4512,10 +4509,10 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4527,10 +4524,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>14</v>
@@ -4539,13 +4536,13 @@
         <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I34" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5402,30 +5399,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5495,129 +5492,129 @@
         <v>35</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -559,10 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/v1/chatrooms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -2811,7 +2807,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/v1/chatrooms/accounts/{accountCode}</t>
+    <t>/rest/v1/chatRooms/accounts/{accountCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3448,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -3491,7 +3491,7 @@
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>28</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -3517,28 +3517,28 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -3550,46 +3550,46 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>164</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="35"/>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3609,10 +3609,10 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C18" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(D7:D102, "未测试")</f>
@@ -3710,7 +3710,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -3722,13 +3722,13 @@
         <v>11</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -3785,25 +3785,25 @@
         <v>11</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3815,25 +3815,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -3845,25 +3845,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3875,10 +3875,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -3907,10 +3907,10 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3922,7 +3922,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -3934,13 +3934,13 @@
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -3964,13 +3964,13 @@
         <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>61</v>
@@ -3997,10 +3997,10 @@
         <v>11</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4012,10 +4012,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -4027,10 +4027,10 @@
         <v>11</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4042,7 +4042,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -4054,13 +4054,13 @@
         <v>11</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4072,7 +4072,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>64</v>
@@ -4084,13 +4084,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4102,10 +4102,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
@@ -4117,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,10 +4132,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
@@ -4144,13 +4144,13 @@
         <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4162,10 +4162,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4174,13 +4174,13 @@
         <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4194,10 +4194,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
@@ -4209,10 +4209,10 @@
         <v>11</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4239,10 +4239,10 @@
         <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4254,10 +4254,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
@@ -4266,13 +4266,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4284,10 +4284,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
@@ -4296,13 +4296,13 @@
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,10 +4314,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -4329,10 +4329,10 @@
         <v>11</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4344,10 +4344,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
@@ -4356,13 +4356,13 @@
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4374,13 +4374,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
@@ -4392,22 +4392,22 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
@@ -4416,28 +4416,28 @@
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4446,13 +4446,13 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4464,10 +4464,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -4479,25 +4479,25 @@
         <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -4509,10 +4509,10 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4524,10 +4524,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>14</v>
@@ -4536,13 +4536,13 @@
         <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I34" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5399,30 +5399,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5492,129 +5492,129 @@
         <v>35</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>186</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18280" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2812,6 +2812,110 @@
   </si>
   <si>
     <t>/rest/v1/chatRooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有聊天室中的未读消息</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liao t shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/accounts/{accountCode}/unread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户所有未阅读的聊天信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+id: '',
+name: '',
+desc: '',
+creator: {
+id: '',
+code: '',
+nickName: '',
+eiimCode: ''
+},
+members: [{
+id: '',
+status: '',
+account: {}
+}],
+messages: [{
+id: '',
+messageType: '',
+message: '',
+sentTime: 1,
+sender: {
+id: '',
+code: '',
+name: '',
+nickname: '',
+...
+}
+}]
+}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS URI定义</t>
+    <rPh sb="6" eb="7">
+      <t>ding yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws://&lt;ip&gt;:&lt;port&gt;/notify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3417,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3583,6 +3687,14 @@
         <v>165</v>
       </c>
       <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
@@ -3606,13 +3718,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C18" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C31" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3636,8 +3748,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="14">
-        <f>COUNTIF(D7:D102, "已完成")</f>
-        <v>28</v>
+        <f>COUNTIF(D7:D103, "已完成")</f>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3645,7 +3757,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="14">
-        <f>COUNTIF(D7:D102, "正在开发")</f>
+        <f>COUNTIF(D7:D103, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -3654,7 +3766,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D7:D102, "未测试")</f>
+        <f>COUNTIF(D7:D103, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -3663,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="14">
-        <f>COUNTIF(D7:D102, "未开始")</f>
+        <f>COUNTIF(D7:D103, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -4488,7 +4600,7 @@
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
@@ -4497,7 +4609,7 @@
         <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -4509,16 +4621,16 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>13</v>
@@ -4527,35 +4639,53 @@
         <v>120</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="9" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
@@ -4565,8 +4695,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4577,8 +4707,8 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4601,8 +4731,8 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4613,8 +4743,8 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4626,7 +4756,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4655,7 +4785,7 @@
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="10"/>
       <c r="E44" s="4"/>
@@ -4667,7 +4797,7 @@
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="10"/>
       <c r="E45" s="4"/>
@@ -4685,25 +4815,25 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="D47" s="10"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="5"/>
       <c r="D48" s="10"/>
       <c r="E48" s="4"/>
@@ -4721,7 +4851,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="4"/>
     </row>
@@ -4733,7 +4863,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="4"/>
     </row>
@@ -4746,7 +4876,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,7 +4888,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4770,7 +4900,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4794,7 +4924,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="8"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4804,8 +4934,8 @@
       <c r="D56" s="10"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" s="4"/>
     </row>
@@ -4816,7 +4946,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="4"/>
@@ -4864,7 +4994,7 @@
       <c r="D61" s="10"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="4"/>
@@ -4876,7 +5006,7 @@
       <c r="D62" s="10"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
@@ -4950,7 +5080,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="8"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4962,7 +5092,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4997,8 +5127,8 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="8"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5009,8 +5139,8 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5022,7 +5152,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="8"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,7 +5164,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5045,7 +5175,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="4"/>
     </row>
@@ -5057,7 +5187,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="4"/>
     </row>
@@ -5105,13 +5235,13 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="5"/>
       <c r="D82" s="10"/>
       <c r="E82" s="4"/>
@@ -5123,26 +5253,26 @@
     </row>
     <row r="83" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="5"/>
       <c r="D83" s="10"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="5"/>
       <c r="D84" s="10"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5153,7 +5283,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="9"/>
       <c r="J85" s="4"/>
     </row>
@@ -5165,7 +5295,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="4"/>
     </row>
@@ -5214,7 +5344,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5238,7 +5368,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,26 +5433,26 @@
     </row>
     <row r="98" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="5"/>
       <c r="D98" s="10"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="5"/>
       <c r="D99" s="10"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5333,8 +5463,8 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5345,36 +5475,48 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="8"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="5"/>
       <c r="D102" s="10"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="4"/>
     </row>
+    <row r="103" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J34"/>
+  <autoFilter ref="A6:J35"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D103">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D35">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C103">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F103">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5476,7 +5618,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -1144,34 +1144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取系统中所有的聊天室信息列表</t>
-    <rPh sb="0" eb="1">
-      <t>huo q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>liao tian shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xin x</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>lie b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取当前账户相关的所有聊天室信息列表</t>
     <rPh sb="0" eb="1">
       <t>huo q</t>
@@ -2841,37 +2813,6 @@
   </si>
   <si>
     <t>/rest/v1/chatRooms/accounts/{accountCode}/unread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户所有未阅读的聊天信息</t>
-    <rPh sb="0" eb="1">
-      <t>huo q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dang q</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>liao t</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xin xi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2916,6 +2857,74 @@
   </si>
   <si>
     <t>ws://&lt;ip&gt;:&lt;port&gt;/notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统中所有的聊天室信息列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin x</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lie b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户所有所有聊天室中的未阅读聊天信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xin xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3521,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3552,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3563,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3574,7 +3583,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3585,7 +3594,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -3595,7 +3604,7 @@
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>28</v>
@@ -3606,10 +3615,10 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,28 +3630,28 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -3654,54 +3663,54 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>163</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="35"/>
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>194</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3720,11 +3729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C31" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3822,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -3852,7 +3861,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
@@ -3882,7 +3891,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -3906,16 +3915,16 @@
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3927,25 +3936,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -3957,25 +3966,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3987,10 +3996,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,7 +4013,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -4034,7 +4043,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -4046,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>78</v>
@@ -4064,7 +4073,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -4076,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>78</v>
@@ -4094,7 +4103,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>61</v>
@@ -4124,7 +4133,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -4154,7 +4163,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -4184,7 +4193,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>64</v>
@@ -4214,7 +4223,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
@@ -4244,7 +4253,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>67</v>
@@ -4256,7 +4265,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>81</v>
@@ -4274,10 +4283,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4286,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="9" t="b">
         <v>1</v>
@@ -4306,10 +4315,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
@@ -4321,10 +4330,10 @@
         <v>11</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4336,10 +4345,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4351,10 +4360,10 @@
         <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,10 +4375,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
@@ -4378,13 +4387,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4396,10 +4405,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
@@ -4408,13 +4417,13 @@
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4426,10 +4435,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -4441,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4456,10 +4465,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
@@ -4468,13 +4477,13 @@
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4486,10 +4495,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>65</v>
@@ -4504,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4516,10 +4525,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
@@ -4528,28 +4537,28 @@
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4558,13 +4567,13 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,10 +4585,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -4591,25 +4600,25 @@
         <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -4621,10 +4630,10 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4636,10 +4645,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>12</v>
@@ -4651,10 +4660,10 @@
         <v>11</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4666,10 +4675,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>14</v>
@@ -4678,13 +4687,13 @@
         <v>11</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I35" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,10 +5550,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5634,129 +5643,129 @@
         <v>35</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="212">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1508,22 +1508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{
-id: '',
-messageType: '',
-message: '',
-sentTime: 0,
-sender: {
-id: '',
-code: '',
-name: '',
-nickname: '',
-...
-}
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 chatRoomId: '',
 noticeType: '',
@@ -2686,21 +2670,6 @@
   </si>
   <si>
     <t>{
-src: '',
-deviceId: '',
-tartType: '',
-tar: '',
-expiredTime: 0,
-messageId: '',
-messageVersion: '',
-message: {
-…...
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 command: 'sendChatMessage',
 type: 'USER',
 payload: {
@@ -2751,26 +2720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-src: '',
-deviceId: '',
-tartType: '',
-tar: '',
-expiredTime: 0,
-messageId: 'chatMessage',
-messageVersion: '1.0',
-message: {
-chatRoomId: '',
-messageType: '',
-message: '',
-accountCode: '',
-eiimCode: '',
-sentTime: 0
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountCode}/unread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2813,6 +2762,85 @@
   </si>
   <si>
     <t>/rest/v1/chatRooms/accounts/{accountCode}/unread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS URI定义</t>
+    <rPh sb="6" eb="7">
+      <t>ding yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws://&lt;ip&gt;:&lt;port&gt;/notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统中所有的聊天室信息列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin x</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lie b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户所有所有聊天室中的未阅读聊天信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xin xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2839,9 +2867,8 @@
 sender: {
 id: '',
 code: '',
-name: '',
 nickname: '',
-...
+avatar: ''
 }
 }]
 }]
@@ -2849,82 +2876,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WS URI定义</t>
-    <rPh sb="6" eb="7">
-      <t>ding yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ws://&lt;ip&gt;:&lt;port&gt;/notify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取系统中所有的聊天室信息列表</t>
-    <rPh sb="0" eb="1">
-      <t>huo q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
+    <t>[{
+id: '',
+messageType: '',
+message: '',
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: 'chatMessage',
+messageVersion: '1.0',
+message: {
+chatRoomId: '',
+messageType: '',
+message: '',
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+},
+sentTime: 0
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: '',
+messageVersion: '',
+message: {
+…...
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知模块</t>
+    <rPh sb="0" eb="1">
+      <t>tong zh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天室变更通知</t>
+    <rPh sb="0" eb="1">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian geng</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+      <t>tong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当聊天室（名称、成员、通告）发生变化的时候，后台服务器向APP推送通知</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming ch</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng y</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong gao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fa sh</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bian h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
       <t>de</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>liao tian shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xin x</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>lie b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户所有所有聊天室中的未阅读聊天信息</t>
-    <rPh sb="0" eb="1">
-      <t>huo q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dang q</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>liao tian shi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>d</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>liao t</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xin xi</t>
-    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi h</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>hou tai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fu w q</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>tong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: 'chatRoomChanged',
+messageVersion: '',
+message: {
+chatRoom: id,
+name: '',
+members: [{
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}],
+notice: {
+id: '',
+title: '',
+content: '',
+sentTime: 0
+}
+}
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3561,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3572,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3583,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -3594,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -3604,7 +3703,7 @@
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>28</v>
@@ -3615,10 +3714,10 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>168</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -3630,28 +3729,28 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -3663,54 +3762,54 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>162</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="35"/>
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3729,11 +3828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3831,7 +3930,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -3861,7 +3960,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
@@ -3891,7 +3990,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -3915,16 +4014,16 @@
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -3936,25 +4035,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -3966,25 +4065,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -3996,10 +4095,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4013,7 +4112,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -4043,7 +4142,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -4055,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>78</v>
@@ -4073,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -4085,7 +4184,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>78</v>
@@ -4103,7 +4202,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>61</v>
@@ -4133,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -4163,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -4193,7 +4292,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>64</v>
@@ -4223,7 +4322,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
@@ -4253,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>67</v>
@@ -4265,7 +4364,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>81</v>
@@ -4283,10 +4382,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4295,7 +4394,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22" s="9" t="b">
         <v>1</v>
@@ -4315,10 +4414,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
@@ -4333,7 +4432,7 @@
         <v>113</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4345,10 +4444,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4375,7 +4474,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>105</v>
@@ -4387,7 +4486,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>113</v>
@@ -4405,10 +4504,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
@@ -4417,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>113</v>
@@ -4435,7 +4534,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>106</v>
@@ -4465,7 +4564,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>107</v>
@@ -4477,7 +4576,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>113</v>
@@ -4495,10 +4594,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>65</v>
@@ -4513,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4525,10 +4624,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
@@ -4537,7 +4636,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>114</v>
@@ -4555,7 +4654,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>111</v>
@@ -4567,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>115</v>
@@ -4585,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -4600,7 +4699,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>101</v>
@@ -4609,16 +4708,16 @@
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -4630,10 +4729,10 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4645,7 +4744,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>109</v>
@@ -4660,7 +4759,7 @@
         <v>11</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>103</v>
@@ -4675,7 +4774,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>108</v>
@@ -4687,7 +4786,7 @@
         <v>11</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9" t="b">
         <v>1</v>
@@ -5550,10 +5649,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5626,16 +5725,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5643,138 +5743,150 @@
         <v>35</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>136</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="34"/>
+      <c r="A8" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$37</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="222">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3026,12 +3026,257 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>获取当前账户相关的所有聊天室信息列表，根据传入的消息ID，同时返回聊天室中未读消息总数，以及最新一条消息。</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lie b</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chuan ru</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>tong shi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>wei du</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zong shu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yi ji</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zui xin</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>yi tiao</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+name: '',
+desc: '',
+creator: {
+id: '',
+code: '',
+nickName: '',
+eiimCode: ''
+},
+members: [{
+id: '',
+status: '',
+account: {}
+}],
+unread: 0,
+latestMessage: {
+id: '',
+messageType: '',
+message: '',
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户在指定聊天室中指定消息前/后的聊天信息，允许分页</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liao t shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fen ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/accounts/{accountCode}/summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountCode}/messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取账号相关的聊天室列表概要信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lie b</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gai yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取聊天室中指定消息前后的消息</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+chatRoomId: '',
+lastMessageId: '',
+direction: 'FORWARD' // FORWARD | BACKWARD
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+lastMessageId: '',
+direction: FORWARD, // FORWARD | BACKWARD
+pageable: true,
+page: 1,
+pageSize: 20
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3123,6 +3368,13 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3221,7 +3473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3255,9 +3507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3339,6 +3588,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3642,162 +3909,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>200</v>
       </c>
       <c r="C20" t="s">
@@ -3805,10 +4072,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3826,96 +4093,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="13" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="13.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="33" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="12" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="14">
-        <f>COUNTIF(D7:D103, "已完成")</f>
+      <c r="D1" s="13">
+        <f>COUNTIF(D7:D104, "已完成")</f>
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14">
-        <f>COUNTIF(D7:D103, "正在开发")</f>
+      <c r="D2" s="13">
+        <f>COUNTIF(D7:D104, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="14">
-        <f>COUNTIF(D7:D103, "未测试")</f>
+      <c r="D3" s="13">
+        <f>COUNTIF(D7:D104, "未测试")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13">
+        <f>COUNTIF(D7:D104, "未开始")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="14">
-        <f>COUNTIF(D7:D103, "未开始")</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="5" spans="1:10" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4466,39 +4734,39 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>97</v>
+      <c r="H25" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>13</v>
@@ -4507,28 +4775,28 @@
         <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -4537,28 +4805,28 @@
         <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>13</v>
@@ -4567,28 +4835,28 @@
         <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="4" t="s">
-        <v>56</v>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>13</v>
@@ -4597,28 +4865,28 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="9" t="b">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
@@ -4627,28 +4895,28 @@
         <v>118</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>114</v>
+        <v>11</v>
+      </c>
+      <c r="I30" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
@@ -4657,7 +4925,7 @@
         <v>118</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4666,19 +4934,19 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>13</v>
@@ -4687,28 +4955,28 @@
         <v>118</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
@@ -4717,7 +4985,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -4729,46 +4997,46 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="D34" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>103</v>
+      <c r="H34" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>13</v>
@@ -4777,47 +5045,83 @@
         <v>118</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="9" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
@@ -4827,8 +5131,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4851,8 +5155,8 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4863,8 +5167,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4876,7 +5180,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4905,7 +5209,7 @@
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="10"/>
       <c r="E45" s="4"/>
@@ -4917,7 +5221,7 @@
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="10"/>
       <c r="E46" s="4"/>
@@ -4935,25 +5239,25 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="D48" s="10"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10"/>
       <c r="E49" s="4"/>
@@ -4971,7 +5275,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="J50" s="4"/>
     </row>
@@ -4983,7 +5287,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
     </row>
@@ -4996,7 +5300,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5008,7 +5312,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5020,7 +5324,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5044,7 +5348,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5054,8 +5358,8 @@
       <c r="D57" s="10"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="4"/>
     </row>
@@ -5066,7 +5370,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="4"/>
@@ -5114,7 +5418,7 @@
       <c r="D62" s="10"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
@@ -5126,7 +5430,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="4"/>
@@ -5200,7 +5504,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="8"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5212,7 +5516,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5247,8 +5551,8 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,8 +5563,8 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5272,7 +5576,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5284,7 +5588,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5295,7 +5599,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="4"/>
     </row>
@@ -5307,7 +5611,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="9"/>
       <c r="J78" s="4"/>
     </row>
@@ -5355,13 +5659,13 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="D83" s="10"/>
       <c r="E83" s="4"/>
@@ -5373,26 +5677,26 @@
     </row>
     <row r="84" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="5"/>
       <c r="D84" s="10"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="5"/>
       <c r="D85" s="10"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5403,7 +5707,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="9"/>
       <c r="J86" s="4"/>
     </row>
@@ -5415,7 +5719,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="4"/>
     </row>
@@ -5464,7 +5768,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="I91" s="9"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5488,7 +5792,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5553,26 +5857,26 @@
     </row>
     <row r="99" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="5"/>
       <c r="D99" s="10"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="5"/>
       <c r="D100" s="10"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5583,8 +5887,8 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5595,36 +5899,48 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="8"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="5"/>
       <c r="D103" s="10"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="4"/>
     </row>
+    <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="8"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J35"/>
+  <autoFilter ref="A6:J37"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D104">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C104">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F104">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5648,72 +5964,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5725,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5739,234 +6055,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="34"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="34"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="34"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="34"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="34"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="34"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="34"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="34"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3267,9 +3267,6 @@
 pageSize: 20
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测试</t>
   </si>
 </sst>
 </file>
@@ -3583,12 +3580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3606,6 +3597,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4002,25 +3999,25 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
@@ -4096,10 +4093,10 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4121,7 @@
       </c>
       <c r="D1" s="13">
         <f>COUNTIF(D7:D104, "已完成")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4142,7 +4139,7 @@
       </c>
       <c r="D3" s="13">
         <f>COUNTIF(D7:D104, "未测试")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4734,32 +4731,32 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="44" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5004,32 +5001,32 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="42" t="s">
+      <c r="D34" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="40" t="s">
         <v>214</v>
       </c>
     </row>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3265,6 +3265,113 @@
 pageable: true,
 page: 1,
 pageSize: 20
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <rPh sb="0" eb="1">
+      <t>we j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <rPh sb="0" eb="1">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file对象</t>
+    <rPh sb="4" eb="5">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <rPh sb="0" eb="1">
+      <t>xia z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/download/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用FORM的Multipart方式传输，一次下载一个文件。</t>
+    <rPh sb="0" eb="1">
+      <t>cai yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>chuan shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xia z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用FORM的Multipart方式传输，一次上传一个文件。</t>
+    <rPh sb="0" eb="1">
+      <t>cai yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>chuan shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang ch</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '', //UUID
+fileName: '',
+fileType: '',
+fileSize: 0
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4093,10 +4200,10 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C37" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4121,7 +4228,7 @@
       </c>
       <c r="D1" s="13">
         <f>COUNTIF(D7:D104, "已完成")</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5121,28 +5228,66 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -2711,15 +2711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-srcCommand: 'sendChatMessage',
-deviceId: '',
-status: '',
-error: ''
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/chatRooms/{chatRoomId}/accounts/{accountCode}/unread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2897,30 +2888,6 @@
 tartType: '',
 tar: '',
 expiredTime: 0,
-messageId: 'chatMessage',
-messageVersion: '1.0',
-message: {
-chatRoomId: '',
-messageType: '',
-message: '',
-sender: {
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-},
-sentTime: 0
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-src: '',
-deviceId: '',
-tartType: '',
-tar: '',
-expiredTime: 0,
 messageId: '',
 messageVersion: '',
 message: {
@@ -2996,34 +2963,6 @@
     <rPh sb="33" eb="34">
       <t>tong zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-src: '',
-deviceId: '',
-tartType: '',
-tar: '',
-expiredTime: 0,
-messageId: 'chatRoomChanged',
-messageVersion: '',
-message: {
-chatRoom: id,
-name: '',
-members: [{
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-}],
-notice: {
-id: '',
-title: '',
-content: '',
-sentTime: 0
-}
-}
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3372,6 +3311,71 @@
 fileName: '',
 fileType: '',
 fileSize: 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: 'chatRoomChanged',
+messageVersion: '',
+message: {
+chatRoom: id,
+name: '',
+members: [{
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}],
+notice: {
+id: '',
+title: '',
+content: '',
+sentTime: 0
+}
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+src: '',
+deviceId: '',
+tartType: '',
+tar: '',
+expiredTime: 0,
+messageId: 'chatMessage',
+messageVersion: '1.0',
+message: {
+chatRoomId: '',
+chatMessageId: '',
+messageType: '',
+message: '',
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+},
+sentTime: 0
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+srcCommand: 'sendChatMessage',
+deviceId: '',
+status: '',
+error: '',
+payload: {
+chatMessageId: ''
+}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3481,7 +3485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3509,6 +3513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3577,7 +3587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3710,6 +3720,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4169,10 +4185,10 @@
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
         <v>200</v>
-      </c>
-      <c r="C20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
@@ -4199,11 +4215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C37" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4789,7 +4805,7 @@
         <v>118</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
@@ -4804,7 +4820,7 @@
         <v>113</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4819,7 +4835,7 @@
         <v>118</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4840,7 +4856,7 @@
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>13</v>
@@ -4849,7 +4865,7 @@
         <v>118</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>14</v>
@@ -4858,13 +4874,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4999,7 +5015,7 @@
         <v>118</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>65</v>
@@ -5089,7 +5105,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -5101,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>101</v>
@@ -5110,7 +5126,7 @@
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>13</v>
@@ -5119,7 +5135,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>14</v>
@@ -5128,19 +5144,19 @@
         <v>11</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>13</v>
@@ -5149,7 +5165,7 @@
         <v>118</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>12</v>
@@ -5161,10 +5177,10 @@
         <v>11</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5229,10 +5245,10 @@
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -5241,7 +5257,7 @@
         <v>118</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -5250,19 +5266,19 @@
         <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
@@ -5271,7 +5287,7 @@
         <v>118</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>12</v>
@@ -5283,10 +5299,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6183,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6217,56 +6233,56 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="48" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6282,29 +6298,29 @@
         <v>11</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6320,7 +6336,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>175</v>
@@ -6328,10 +6344,10 @@
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>179</v>
@@ -6340,10 +6356,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2835,53 +2835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[{
-id: '',
-name: '',
-desc: '',
-creator: {
-id: '',
-code: '',
-nickName: '',
-eiimCode: ''
-},
-members: [{
-id: '',
-status: '',
-account: {}
-}],
-messages: [{
-id: '',
-messageType: '',
-message: '',
-sentTime: 1,
-sender: {
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-}
-}]
-}]
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-id: '',
-messageType: '',
-message: '',
-sentTime: 0,
-sender: {
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-}
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 src: '',
 deviceId: '',
@@ -3344,6 +3297,128 @@
   </si>
   <si>
     <t>{
+srcCommand: 'sendChatMessage',
+deviceId: '',
+status: '',
+error: '',
+payload: {
+chatMessageId: ''
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+messageType: '',
+message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: 0}两种
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]</t>
+    <rPh sb="44" eb="45">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>er</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>de</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>mu q</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>wen b</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>he</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>fu jian</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>liang zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+messageType: '',
+message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: 0}两种
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+id: '',
+name: '',
+desc: '',
+creator: {
+id: '',
+code: '',
+nickName: '',
+eiimCode: ''
+},
+members: [{
+id: '',
+status: '',
+account: {}
+}],
+messages: [{
+id: '',
+messageType: '',
+message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: 0}两种
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]
+}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
 src: '',
 deviceId: '',
 tartType: '',
@@ -3355,7 +3430,7 @@
 chatRoomId: '',
 chatMessageId: '',
 messageType: '',
-message: '',
+message: {}, // 消息内容结构，支持文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: ''}
 sender: {
 id: '',
 code: '',
@@ -3365,18 +3440,33 @@
 sentTime: 0
 }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-srcCommand: 'sendChatMessage',
-deviceId: '',
-status: '',
-error: '',
-payload: {
-chatMessageId: ''
-}
-}</t>
+    <rPh sb="192" eb="193">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>jie g</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>wen b</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>he</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>fu j</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>xiao x</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3485,7 +3575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3519,6 +3609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3587,7 +3683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3715,17 +3811,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4016,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4122,25 +4224,25 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
@@ -4216,10 +4318,10 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4856,7 +4958,7 @@
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>13</v>
@@ -4865,7 +4967,7 @@
         <v>118</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>14</v>
@@ -4874,13 +4976,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5095,7 +5197,7 @@
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -5117,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>101</v>
@@ -5125,8 +5227,8 @@
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
-      <c r="B34" s="40" t="s">
-        <v>215</v>
+      <c r="B34" s="48" t="s">
+        <v>213</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>13</v>
@@ -5135,7 +5237,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>14</v>
@@ -5144,18 +5246,18 @@
         <v>11</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="47" t="s">
         <v>197</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -5177,7 +5279,7 @@
         <v>11</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>202</v>
@@ -5245,10 +5347,10 @@
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -5257,7 +5359,7 @@
         <v>118</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -5266,19 +5368,19 @@
         <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
@@ -5287,7 +5389,7 @@
         <v>118</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>12</v>
@@ -5299,10 +5401,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6200,7 +6302,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6233,56 +6335,56 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="46" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6298,29 +6400,29 @@
         <v>11</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6336,7 +6438,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>175</v>
@@ -6344,10 +6446,10 @@
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>179</v>
@@ -6356,10 +6458,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="3"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -830,22 +830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-id:'',
-firstName:'',
-lastName:'',
-title: '',
-phone: '',
-mobile: '',
-email: '',
-desc: '',
-accountId:'',
-nickname: '',
-avatar: ''
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用用户名/口令登入系统</t>
     <rPh sb="0" eb="1">
       <t>shi yon</t>
@@ -3467,6 +3451,23 @@
     <rPh sb="218" eb="219">
       <t>xiao x</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id:'',
+firstName:'',
+lastName:'',
+fullName: '',
+title: '',
+phone: '',
+mobile: '',
+email: '',
+desc: '',
+accountId:'',
+nickname: '',
+avatar: ''
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4149,7 +4150,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -4160,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -4171,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -4182,7 +4183,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -4192,7 +4193,7 @@
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>28</v>
@@ -4203,10 +4204,10 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4218,28 +4219,28 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -4251,54 +4252,54 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="34"/>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>161</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="34"/>
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
         <v>199</v>
-      </c>
-      <c r="C20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>191</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4317,11 +4318,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4420,7 +4421,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -4438,7 +4439,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4450,7 +4451,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
@@ -4468,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4480,7 +4481,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -4498,22 +4499,22 @@
         <v>76</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -4525,25 +4526,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -4555,25 +4556,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4585,10 +4586,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,7 +4603,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -4620,7 +4621,7 @@
         <v>77</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,7 +4633,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -4644,13 +4645,13 @@
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4662,7 +4663,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -4674,13 +4675,13 @@
         <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>78</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4692,7 +4693,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>61</v>
@@ -4710,7 +4711,7 @@
         <v>78</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4722,7 +4723,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -4740,7 +4741,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4752,7 +4753,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -4764,13 +4765,13 @@
         <v>11</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4782,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>64</v>
@@ -4794,13 +4795,13 @@
         <v>11</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4812,7 +4813,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
@@ -4830,7 +4831,7 @@
         <v>81</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4842,7 +4843,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>67</v>
@@ -4854,13 +4855,13 @@
         <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4872,10 +4873,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4884,13 +4885,13 @@
         <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4904,10 +4905,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
@@ -4919,10 +4920,10 @@
         <v>11</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4934,10 +4935,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4949,25 +4950,25 @@
         <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>14</v>
@@ -4976,13 +4977,13 @@
         <v>11</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,10 +4995,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>14</v>
@@ -5006,13 +5007,13 @@
         <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5024,10 +5025,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>27</v>
@@ -5036,13 +5037,13 @@
         <v>11</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5054,10 +5055,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>12</v>
@@ -5069,10 +5070,10 @@
         <v>11</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5084,10 +5085,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
@@ -5096,13 +5097,13 @@
         <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,10 +5115,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>65</v>
@@ -5132,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5144,10 +5145,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -5156,28 +5157,28 @@
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>27</v>
@@ -5186,13 +5187,13 @@
         <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5204,10 +5205,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -5219,25 +5220,25 @@
         <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>14</v>
@@ -5246,28 +5247,28 @@
         <v>11</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>12</v>
@@ -5279,10 +5280,10 @@
         <v>11</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5294,10 +5295,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>12</v>
@@ -5309,10 +5310,10 @@
         <v>11</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5324,10 +5325,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>14</v>
@@ -5336,30 +5337,30 @@
         <v>11</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -5368,28 +5369,28 @@
         <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>12</v>
@@ -5401,10 +5402,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6225,10 +6226,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -6301,7 +6302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6319,149 +6320,149 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>133</v>
-      </c>
       <c r="C2" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>183</v>
-      </c>
       <c r="D3" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>135</v>
-      </c>
       <c r="C6" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -3456,6 +3456,7 @@
   <si>
     <t>{
 id:'',
+orgId: '',
 firstName:'',
 lastName:'',
 fullName: '',
@@ -4322,7 +4323,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -3460,6 +3460,7 @@
 firstName:'',
 lastName:'',
 fullName: '',
+sex: 'MALE',
 title: '',
 phone: '',
 mobile: '',
@@ -4320,10 +4321,10 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$38</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="235">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3470,6 +3470,52 @@
 nickname: '',
 avatar: ''
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable/disalbe账户</t>
+    <rPh sb="14" eb="15">
+      <t>zhang h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/persons/{personId}/valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止账户，其实就是设置账户的valid字段</t>
+    <rPh sb="0" eb="1">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>she zh</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zi duan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4318,13 +4364,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4348,8 +4394,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="13">
-        <f>COUNTIF(D7:D104, "已完成")</f>
-        <v>33</v>
+        <f>COUNTIF(D7:D105, "已完成")</f>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,7 +4403,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13">
-        <f>COUNTIF(D7:D104, "正在开发")</f>
+        <f>COUNTIF(D7:D105, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -4366,7 +4412,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D104, "未测试")</f>
+        <f>COUNTIF(D7:D105, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -4375,7 +4421,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="13">
-        <f>COUNTIF(D7:D104, "未开始")</f>
+        <f>COUNTIF(D7:D105, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -4868,40 +4914,38 @@
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
@@ -4910,28 +4954,30 @@
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="I23" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>13</v>
@@ -4940,7 +4986,7 @@
         <v>117</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4955,73 +5001,73 @@
         <v>112</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40" t="s">
+    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D26" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E26" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H26" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I26" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J26" s="44" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -5030,28 +5076,28 @@
         <v>117</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>13</v>
@@ -5060,28 +5106,28 @@
         <v>117</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>13</v>
@@ -5090,28 +5136,28 @@
         <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
@@ -5120,28 +5166,28 @@
         <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="9" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
@@ -5150,28 +5196,28 @@
         <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>113</v>
+        <v>11</v>
+      </c>
+      <c r="I31" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>13</v>
@@ -5180,7 +5226,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>27</v>
@@ -5189,19 +5235,19 @@
         <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="47" t="s">
-        <v>55</v>
+      <c r="B33" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
@@ -5210,88 +5256,88 @@
         <v>117</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="H34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="48" t="s">
+    <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C35" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D35" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E35" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F35" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H35" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I35" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J35" s="40" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
+      <c r="B36" s="47" t="s">
+        <v>196</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>13</v>
@@ -5300,7 +5346,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>12</v>
@@ -5312,16 +5358,16 @@
         <v>11</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>13</v>
@@ -5330,30 +5376,28 @@
         <v>117</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="9" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>215</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="4" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -5362,7 +5406,7 @@
         <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -5371,19 +5415,21 @@
         <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>223</v>
+        <v>115</v>
+      </c>
+      <c r="I38" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="B39" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
@@ -5392,35 +5438,53 @@
         <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="H39" s="9" t="s">
         <v>218</v>
       </c>
+      <c r="I39" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="J39" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -5430,8 +5494,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5442,8 +5506,8 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5455,7 +5519,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5484,7 +5548,7 @@
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="10"/>
       <c r="E46" s="4"/>
@@ -5496,7 +5560,7 @@
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="10"/>
       <c r="E47" s="4"/>
@@ -5514,25 +5578,25 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10"/>
       <c r="E50" s="4"/>
@@ -5550,7 +5614,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
     </row>
@@ -5562,7 +5626,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="4"/>
     </row>
@@ -5575,7 +5639,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,7 +5651,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5599,7 +5663,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,7 +5687,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5633,8 +5697,8 @@
       <c r="D58" s="10"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="4"/>
     </row>
@@ -5645,7 +5709,7 @@
       <c r="D59" s="10"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="4"/>
@@ -5693,7 +5757,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="4"/>
@@ -5705,7 +5769,7 @@
       <c r="D64" s="10"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="4"/>
@@ -5779,7 +5843,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5791,7 +5855,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5826,8 +5890,8 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,8 +5902,8 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5851,7 +5915,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5863,7 +5927,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,7 +5938,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="4"/>
     </row>
@@ -5886,7 +5950,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="4"/>
     </row>
@@ -5934,13 +5998,13 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="5"/>
       <c r="D84" s="10"/>
       <c r="E84" s="4"/>
@@ -5952,26 +6016,26 @@
     </row>
     <row r="85" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="5"/>
       <c r="D85" s="10"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="10"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5982,7 +6046,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="J87" s="4"/>
     </row>
@@ -5994,7 +6058,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="4"/>
     </row>
@@ -6043,7 +6107,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6067,7 +6131,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6132,26 +6196,26 @@
     </row>
     <row r="100" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100" s="10"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="5"/>
       <c r="D101" s="10"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6162,8 +6226,8 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,36 +6238,48 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="8"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="5"/>
       <c r="D104" s="10"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="4"/>
     </row>
+    <row r="105" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J37"/>
+  <autoFilter ref="A6:J38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D105">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D12 D13:D38">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C12 C13:C105">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F12 F13:F105">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$40</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="244">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3473,48 +3473,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/rest/v1/persons/{personId}/valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/accounts/{accountId}/invaid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+account: {
+id: '',
+code: '',
+name: '',
+nickname: '',
+eiimCode: '',
+avatar: '',
+valid: true,
+person: {
+id: '',
+name: '',
+title: '',
+phone: '',
+mobile: '',
+email: '',
+desc: ''
+},
+roles: [{
+id:'',
+code: '',
+name: ''
+}]
+},
+status: '',
+token: '',
+loginTime: 0,
+logoutTime: null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+code: '',
+name: '',
+nickname: '',
+eiimCode: '',
+avatar: '',
+valid: true,
+person: {
+id: '',
+name: '',
+title: '',
+phone: '',
+mobile: '',
+email: '',
+desc: ''
+},
+roles: [{
+id:'',
+code: '',
+name: ''
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
+name: '',
+desc: '',
+sex: 'FEMALE',
+birthday: 0,
+title: '',
+phone: '',
+mobile: '',
+email: '',
+hasAccount: true,
+account: {
+id: '',
+code: '',
+name: '',
+nickname: '',
+avatar: '',
+eiimCode: ''
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable/disalbe人员和账户</t>
+    <rPh sb="14" eb="15">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>he</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止人员，invalid=true表示将人员使能，否则将禁用人员；如果改人员对应哟账户，则账户也将同步被使能/禁止。</t>
+    <rPh sb="0" eb="1">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fou z</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jin yong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ru g</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>tong bu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>be</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jin zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止账户，invalid=true表示将账户使能，否则将禁用账户，跟人员操作无关，仅操作账户</t>
+    <rPh sb="5" eb="6">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wu guan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/orgs/{orgId}/valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable/disalbe部门</t>
+    <rPh sb="14" eb="15">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enable/disalbe账户</t>
     <rPh sb="14" eb="15">
-      <t>zhang h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/persons/{personId}/valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能/禁止账户，其实就是设置账户的valid字段</t>
-    <rPh sb="0" eb="1">
-      <t>shi neng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jin zhi</t>
-    </rPh>
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止部门，invalid=true表示将部门使能，否则将禁用部门；如果指定部门还有下级部门，也将对下级部门进行操作（仅针对valid=falise）操作；对于valid=true操作，下级部门将不会自动操作，需要一个一个确认enable。</t>
     <rPh sb="5" eb="6">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qi shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jiu shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>she zh</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zi duan</t>
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ru g</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hai you</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jin x</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhen dui</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>dui yu</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>bu hui</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>yi ge yi ge</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>que ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3624,7 +3911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3658,12 +3945,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3732,7 +4013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3866,16 +4147,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4273,25 +4563,25 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
@@ -4364,13 +4654,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4394,8 +4684,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="13">
-        <f>COUNTIF(D7:D105, "已完成")</f>
-        <v>34</v>
+        <f>COUNTIF(D7:D107, "已完成")</f>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4403,7 +4693,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13">
-        <f>COUNTIF(D7:D105, "正在开发")</f>
+        <f>COUNTIF(D7:D107, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4702,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D105, "未测试")</f>
+        <f>COUNTIF(D7:D107, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -4421,7 +4711,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="13">
-        <f>COUNTIF(D7:D105, "未开始")</f>
+        <f>COUNTIF(D7:D107, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -4458,1069 +4748,1105 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="9" t="b">
+      <c r="I8" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I11" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I12" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I13" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I14" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H15" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I15" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H16" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I16" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D18" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H18" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I18" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J18" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G19" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H19" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I19" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J19" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D20" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H20" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I20" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J20" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H21" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I21" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="J22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D23" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H23" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I24" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="J24" s="44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D25" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="41" t="s">
+      <c r="H28" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D29" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" s="43" t="s">
+      <c r="G31" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="H31" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D32" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="9" t="b">
+      <c r="H32" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49"/>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="J33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="49"/>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D34" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G36" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H36" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="I36" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
+      <c r="B37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="49"/>
+      <c r="B38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G38" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H38" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="41" t="s">
+      <c r="I38" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="49"/>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="40" t="s">
+      <c r="E39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="49"/>
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G40" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="J26" s="44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="H40" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D41" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G41" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="H41" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="49"/>
+      <c r="B42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D42" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="H42" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="I42" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="J42" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="4"/>
+    <row r="43" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="49"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
@@ -5530,7 +5856,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="4"/>
     </row>
@@ -5543,7 +5869,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5560,7 +5886,7 @@
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="10"/>
       <c r="E47" s="4"/>
@@ -5572,7 +5898,7 @@
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="10"/>
       <c r="E48" s="4"/>
@@ -5584,19 +5910,19 @@
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10"/>
       <c r="E50" s="4"/>
@@ -5608,25 +5934,25 @@
     </row>
     <row r="51" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="D51" s="10"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="5"/>
       <c r="D52" s="10"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="9"/>
       <c r="J52" s="4"/>
     </row>
@@ -5650,8 +5976,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5687,7 +6013,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5699,7 +6025,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5709,9 +6035,9 @@
       <c r="D59" s="10"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5722,7 +6048,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="4"/>
     </row>
@@ -5733,7 +6059,7 @@
       <c r="D61" s="10"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="8"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="4"/>
@@ -5769,7 +6095,7 @@
       <c r="D64" s="10"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="4"/>
@@ -5793,7 +6119,7 @@
       <c r="D66" s="10"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="8"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -5855,7 +6181,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5879,7 +6205,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5902,8 +6228,8 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5926,7 +6252,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="8"/>
       <c r="J77" s="4"/>
     </row>
@@ -5950,8 +6276,8 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5974,7 +6300,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="4"/>
     </row>
@@ -6010,19 +6336,19 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="5"/>
       <c r="D85" s="10"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="4"/>
     </row>
@@ -6035,7 +6361,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="I86" s="9"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6052,14 +6378,14 @@
     </row>
     <row r="88" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="10"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6082,7 +6408,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="4"/>
     </row>
@@ -6119,7 +6445,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6131,7 +6457,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6143,7 +6469,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6155,7 +6481,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="8"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6208,19 +6534,19 @@
     </row>
     <row r="101" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="7"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="5"/>
       <c r="D101" s="10"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="5"/>
       <c r="D102" s="10"/>
       <c r="E102" s="4"/>
@@ -6232,13 +6558,13 @@
     </row>
     <row r="103" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="5"/>
       <c r="D103" s="10"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="4"/>
     </row>
@@ -6251,35 +6577,59 @@
       <c r="F104" s="4"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="9"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="5"/>
       <c r="D105" s="10"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="4"/>
     </row>
+    <row r="106" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J38"/>
+  <autoFilter ref="A6:J40"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D107">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D12 D13:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D40">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C12 C13:C105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C107">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F12 F13:F105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F107">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/workspace/git/EIIM/design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/workspace/git/EIIM/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -4321,10 +4321,10 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4333,10 +4333,10 @@
     <col min="2" max="2" width="33" style="12" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="54.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="12" customWidth="1"/>
     <col min="10" max="10" width="58.1640625" style="12" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="12" customWidth="1"/>
@@ -4836,7 +4836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="4" t="s">
         <v>46</v>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$41</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="247">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3519,6 +3519,281 @@
   <si>
     <t>{
 id: '',
+name: '',
+desc: '',
+sex: 'FEMALE',
+birthday: 0,
+title: '',
+phone: '',
+mobile: '',
+email: '',
+hasAccount: true,
+account: {
+id: '',
+code: '',
+name: '',
+nickname: '',
+avatar: '',
+eiimCode: ''
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable/disalbe人员和账户</t>
+    <rPh sb="14" eb="15">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>he</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止人员，invalid=true表示将人员使能，否则将禁用人员；如果改人员对应哟账户，则账户也将同步被使能/禁止。</t>
+    <rPh sb="0" eb="1">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fou z</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jin yong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ru g</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>tong bu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>be</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>shi neng</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jin zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止账户，invalid=true表示将账户使能，否则将禁用账户，跟人员操作无关，仅操作账户</t>
+    <rPh sb="5" eb="6">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ren y</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wu guan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/orgs/{orgId}/valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable/disalbe部门</t>
+    <rPh sb="14" eb="15">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable/disalbe账户</t>
+    <rPh sb="14" eb="15">
+      <t>zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/禁止部门，invalid=true表示将部门使能，否则将禁用部门；如果指定部门还有下级部门，也将对下级部门进行操作（仅针对valid=falise）操作；对于valid=true操作，下级部门将不会自动操作，需要一个一个确认enable。</t>
+    <rPh sb="5" eb="6">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ru g</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hai you</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jin x</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhen dui</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>dui yu</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>bu hui</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>yi ge yi ge</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>que ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取账户</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu zhang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/accounts{accountId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '',
 code: '',
 name: '',
 nickname: '',
@@ -3542,266 +3817,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-id: '',
-name: '',
-desc: '',
-sex: 'FEMALE',
-birthday: 0,
-title: '',
-phone: '',
-mobile: '',
-email: '',
-hasAccount: true,
-account: {
-id: '',
-code: '',
-name: '',
-nickname: '',
-avatar: '',
-eiimCode: ''
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable/disalbe人员和账户</t>
-    <rPh sb="14" eb="15">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>he</t>
-    </rPh>
-    <rPh sb="17" eb="18">
+    <t>根据账户Id获取账户信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>zhang hu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能/禁止人员，invalid=true表示将人员使能，否则将禁用人员；如果改人员对应哟账户，则账户也将同步被使能/禁止。</t>
-    <rPh sb="0" eb="1">
-      <t>shi neng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jin zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shi neng</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>fou z</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>jin yong</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ru g</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>dui ying</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>yo</t>
-    </rPh>
-    <rPh sb="44" eb="45">
+    <rPh sb="6" eb="7">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>zhang hu</t>
     </rPh>
-    <rPh sb="47" eb="48">
-      <t>ze</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>tong bu</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>be</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>shi neng</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>jin zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能/禁止账户，invalid=true表示将账户使能，否则将禁用账户，跟人员操作无关，仅操作账户</t>
-    <rPh sb="5" eb="6">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ren y</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>cao z</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>wu guan</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>jin</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>cao z</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>zhang hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/orgs/{orgId}/valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable/disalbe部门</t>
-    <rPh sb="14" eb="15">
-      <t>bu men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable/disalbe账户</t>
-    <rPh sb="14" eb="15">
-      <t>zhang hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能/禁止部门，invalid=true表示将部门使能，否则将禁用部门；如果指定部门还有下级部门，也将对下级部门进行操作（仅针对valid=falise）操作；对于valid=true操作，下级部门将不会自动操作，需要一个一个确认enable。</t>
-    <rPh sb="5" eb="6">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ru g</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>zhi ding</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>hai you</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>xia ji</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>xia ji</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>jin x</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>cao z</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>jin</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>zhen dui</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>cao z</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>dui yu</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>cao z</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>xia ji</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>bu hui</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>zi dong</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>cao z</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>xu y</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>yi ge yi ge</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>que ren</t>
+    <rPh sb="10" eb="11">
+      <t>xin xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4147,12 +4177,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4166,6 +4190,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4563,25 +4593,25 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
@@ -4654,10 +4684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
@@ -4684,8 +4714,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="13">
-        <f>COUNTIF(D7:D107, "已完成")</f>
-        <v>36</v>
+        <f>COUNTIF(D7:D108, "已完成")</f>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4693,7 +4723,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13">
-        <f>COUNTIF(D7:D107, "正在开发")</f>
+        <f>COUNTIF(D7:D108, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -4702,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D107, "未测试")</f>
+        <f>COUNTIF(D7:D108, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -4711,7 +4741,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="13">
-        <f>COUNTIF(D7:D107, "未开始")</f>
+        <f>COUNTIF(D7:D108, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -4748,17 +4778,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4767,28 +4797,28 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="50" t="s">
         <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4797,28 +4827,28 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="52" t="b">
+      <c r="I8" s="50" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4827,23 +4857,23 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="50" t="s">
         <v>234</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
       <c r="B10" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>13</v>
@@ -4852,1013 +4882,1031 @@
         <v>117</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D12" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>151</v>
+      <c r="I12" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
       <c r="B13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="52" t="s">
-        <v>150</v>
+      <c r="I13" s="50" t="s">
+        <v>151</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>37</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D16" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H16" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D17" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I17" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="41" t="s">
+    <row r="18" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="40" t="s">
+      <c r="E18" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I18" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="1" t="s">
+      <c r="J18" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D19" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D21" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H21" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D22" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G22" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H22" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I22" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="50" t="s">
+      <c r="C25" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D25" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="49" t="s">
+      <c r="E25" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="I25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="50" t="s">
+      <c r="H26" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D27" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="50" t="s">
         <v>112</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D29" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I30" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C31" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D31" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G31" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H31" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I31" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C32" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D32" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G32" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H32" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I32" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C33" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D33" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G33" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H33" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C34" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D34" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G34" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H34" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="52" t="b">
+      <c r="I34" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C35" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D35" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C37" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D37" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G37" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H37" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I37" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D38" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G38" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H38" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I38" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C39" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D39" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C41" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D41" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I42" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="47"/>
+      <c r="B43" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D43" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G43" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="H43" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="52" t="s">
+      <c r="I43" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="4"/>
+    <row r="44" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="47"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
@@ -5868,8 +5916,8 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,7 +5929,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5910,7 +5958,7 @@
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10"/>
       <c r="E49" s="4"/>
@@ -5922,7 +5970,7 @@
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10"/>
       <c r="E50" s="4"/>
@@ -5940,25 +5988,25 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="D52" s="10"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="5"/>
       <c r="D53" s="10"/>
       <c r="E53" s="4"/>
@@ -5976,7 +6024,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="9"/>
       <c r="J54" s="4"/>
     </row>
@@ -5988,7 +6036,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="4"/>
     </row>
@@ -6001,7 +6049,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6013,7 +6061,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6025,7 +6073,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6049,7 +6097,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6059,8 +6107,8 @@
       <c r="D61" s="10"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="4"/>
     </row>
@@ -6071,7 +6119,7 @@
       <c r="D62" s="10"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
@@ -6119,7 +6167,7 @@
       <c r="D66" s="10"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -6131,7 +6179,7 @@
       <c r="D67" s="10"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="8"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="4"/>
@@ -6205,7 +6253,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="8"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6217,7 +6265,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6252,8 +6300,8 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6264,8 +6312,8 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6277,7 +6325,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6289,7 +6337,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6300,7 +6348,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="4"/>
     </row>
@@ -6312,7 +6360,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="9"/>
       <c r="J82" s="4"/>
     </row>
@@ -6360,13 +6408,13 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
-      <c r="B87" s="6"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="10"/>
       <c r="E87" s="4"/>
@@ -6378,26 +6426,26 @@
     </row>
     <row r="88" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="5"/>
       <c r="D88" s="10"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="10"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6408,7 +6456,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="9"/>
       <c r="J90" s="4"/>
     </row>
@@ -6420,7 +6468,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="4"/>
     </row>
@@ -6469,7 +6517,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6493,7 +6541,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6558,26 +6606,26 @@
     </row>
     <row r="103" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="7"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="5"/>
       <c r="D103" s="10"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="9"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="5"/>
       <c r="D104" s="10"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6588,8 +6636,8 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6600,36 +6648,48 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="8"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="5"/>
       <c r="D107" s="10"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="9"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="4"/>
     </row>
+    <row r="108" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J40"/>
+  <autoFilter ref="A6:J41"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D108">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D41">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C108">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F108">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$42</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="251">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3832,6 +3832,82 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员重置密码</t>
+    <rPh sb="0" eb="1">
+      <t>guan li y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mi m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/accounts/{accountId}/reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+accountCode: '',
+newPassword: ''
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置指定账户的密码，只有管理员角色的账户才能重置其他账户的密码。</t>
+    <rPh sb="0" eb="1">
+      <t>chong zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mi m</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan li y</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jue se</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cai neng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chong zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>mi m</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4684,13 +4760,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4714,8 +4790,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="13">
-        <f>COUNTIF(D7:D108, "已完成")</f>
-        <v>37</v>
+        <f>COUNTIF(D7:D109, "已完成")</f>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4723,7 +4799,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13">
-        <f>COUNTIF(D7:D108, "正在开发")</f>
+        <f>COUNTIF(D7:D109, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -4732,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D108, "未测试")</f>
+        <f>COUNTIF(D7:D109, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -4741,7 +4817,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="13">
-        <f>COUNTIF(D7:D108, "未开始")</f>
+        <f>COUNTIF(D7:D109, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -4932,38 +5008,38 @@
     </row>
     <row r="12" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
-      <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>153</v>
+      <c r="H12" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>13</v>
@@ -4972,7 +5048,7 @@
         <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -4984,16 +5060,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>13</v>
@@ -5002,7 +5078,7 @@
         <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -5014,18 +5090,16 @@
         <v>11</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>37</v>
-      </c>
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>13</v>
@@ -5034,7 +5108,7 @@
         <v>117</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -5046,16 +5120,18 @@
         <v>11</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="47" t="s">
+        <v>37</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>13</v>
@@ -5064,28 +5140,28 @@
         <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>13</v>
@@ -5094,10 +5170,10 @@
         <v>117</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G17" s="47" t="s">
         <v>11</v>
@@ -5109,73 +5185,73 @@
         <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
-      <c r="B18" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="44" t="s">
-        <v>242</v>
+      <c r="J18" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>88</v>
+      <c r="J19" s="44" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>13</v>
@@ -5184,7 +5260,7 @@
         <v>117</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -5196,16 +5272,16 @@
         <v>11</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>13</v>
@@ -5214,28 +5290,28 @@
         <v>117</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>13</v>
@@ -5244,10 +5320,10 @@
         <v>117</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>11</v>
@@ -5256,16 +5332,16 @@
         <v>230</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>13</v>
@@ -5274,28 +5350,28 @@
         <v>117</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>13</v>
@@ -5304,90 +5380,88 @@
         <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
-      <c r="B25" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="H25" s="43" t="s">
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="H25" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="44" t="s">
-        <v>237</v>
+      <c r="J25" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>13</v>
@@ -5396,28 +5470,30 @@
         <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G27" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="I27" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="48" t="s">
         <v>13</v>
@@ -5426,7 +5502,7 @@
         <v>117</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
@@ -5441,13 +5517,13 @@
         <v>112</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>13</v>
@@ -5456,28 +5532,28 @@
         <v>117</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>112</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="C30" s="48" t="s">
         <v>13</v>
@@ -5486,7 +5562,7 @@
         <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -5495,19 +5571,19 @@
         <v>11</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>96</v>
+        <v>207</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="48" t="s">
         <v>13</v>
@@ -5516,28 +5592,28 @@
         <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G31" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I31" s="50" t="s">
         <v>112</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>13</v>
@@ -5546,28 +5622,28 @@
         <v>117</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G32" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>13</v>
@@ -5576,28 +5652,28 @@
         <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G33" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I33" s="50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47"/>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>13</v>
@@ -5606,28 +5682,28 @@
         <v>117</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G34" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="50" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47"/>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>13</v>
@@ -5636,28 +5712,28 @@
         <v>117</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G35" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>113</v>
+        <v>11</v>
+      </c>
+      <c r="I35" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>13</v>
@@ -5666,7 +5742,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>27</v>
@@ -5675,19 +5751,19 @@
         <v>11</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="47"/>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>13</v>
@@ -5696,28 +5772,28 @@
         <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G37" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="I37" s="50" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>13</v>
@@ -5726,28 +5802,28 @@
         <v>117</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="I38" s="50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47"/>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>13</v>
@@ -5756,28 +5832,28 @@
         <v>117</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="I39" s="50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>13</v>
@@ -5786,7 +5862,7 @@
         <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
@@ -5798,16 +5874,16 @@
         <v>11</v>
       </c>
       <c r="I40" s="50" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>13</v>
@@ -5816,30 +5892,28 @@
         <v>117</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="50" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
-        <v>215</v>
-      </c>
+      <c r="A42" s="47"/>
       <c r="B42" s="1" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>13</v>
@@ -5848,7 +5922,7 @@
         <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
@@ -5857,19 +5931,21 @@
         <v>11</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>223</v>
+        <v>115</v>
+      </c>
+      <c r="I42" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="47" t="s">
+        <v>215</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>13</v>
@@ -5878,47 +5954,65 @@
         <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="47" t="s">
-        <v>11</v>
+      <c r="H43" s="50" t="s">
+        <v>218</v>
       </c>
       <c r="I43" s="50" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="4"/>
+      <c r="B44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="47"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -5928,8 +6022,8 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5941,7 +6035,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5970,7 +6064,7 @@
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10"/>
       <c r="E50" s="4"/>
@@ -5982,7 +6076,7 @@
     </row>
     <row r="51" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="10"/>
       <c r="E51" s="4"/>
@@ -6000,25 +6094,25 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="9"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="D53" s="10"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="5"/>
       <c r="D54" s="10"/>
       <c r="E54" s="4"/>
@@ -6036,7 +6130,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="4"/>
     </row>
@@ -6048,7 +6142,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="4"/>
     </row>
@@ -6061,7 +6155,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6073,7 +6167,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6085,7 +6179,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6109,7 +6203,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6119,8 +6213,8 @@
       <c r="D62" s="10"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
     </row>
@@ -6131,7 +6225,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="4"/>
@@ -6179,7 +6273,7 @@
       <c r="D67" s="10"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="4"/>
@@ -6191,7 +6285,7 @@
       <c r="D68" s="10"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="8"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="4"/>
@@ -6265,7 +6359,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="8"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6277,7 +6371,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6312,8 +6406,8 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6324,8 +6418,8 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6337,7 +6431,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6349,7 +6443,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6360,7 +6454,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="4"/>
     </row>
@@ -6372,7 +6466,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="9"/>
       <c r="J83" s="4"/>
     </row>
@@ -6420,13 +6514,13 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="10"/>
       <c r="E88" s="4"/>
@@ -6438,26 +6532,26 @@
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="5"/>
       <c r="D89" s="10"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="10"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6468,7 +6562,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="4"/>
     </row>
@@ -6480,7 +6574,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="4"/>
     </row>
@@ -6529,7 +6623,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="I96" s="9"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6553,7 +6647,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6618,26 +6712,26 @@
     </row>
     <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="5"/>
       <c r="D104" s="10"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="9"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="5"/>
       <c r="D105" s="10"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6648,8 +6742,8 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,36 +6754,48 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="9"/>
       <c r="I107" s="8"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="5"/>
       <c r="D108" s="10"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="8"/>
       <c r="J108" s="4"/>
     </row>
+    <row r="109" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="8"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J41"/>
+  <autoFilter ref="A6:J42"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:D109">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D42">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C109">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F109">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$43</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="254">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3908,6 +3908,117 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>mi m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取聊天室中指定消息前后的消息(未指定聊天室)</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao tian shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>liao tian shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/chatRooms/accounts/{accountCode}/messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户指定消息前/后的聊天信息，允许分页；指定消息Id不能为空，根据该ID获取关联的聊天室。</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liao t</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fen ye</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wei kong</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>de</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>liao tian shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4760,13 +4871,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4790,8 +4901,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="13">
-        <f>COUNTIF(D7:D109, "已完成")</f>
-        <v>38</v>
+        <f>COUNTIF(D7:D110, "已完成")</f>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,7 +4910,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13">
-        <f>COUNTIF(D7:D109, "正在开发")</f>
+        <f>COUNTIF(D7:D110, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -4808,7 +4919,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D109, "未测试")</f>
+        <f>COUNTIF(D7:D110, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -4817,7 +4928,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="13">
-        <f>COUNTIF(D7:D109, "未开始")</f>
+        <f>COUNTIF(D7:D110, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -5852,38 +5963,38 @@
     </row>
     <row r="40" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
-      <c r="B40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="48" t="s">
+      <c r="B40" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="47" t="s">
+      <c r="E40" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>201</v>
+      <c r="H40" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>13</v>
@@ -5892,7 +6003,7 @@
         <v>117</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
@@ -5904,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>13</v>
@@ -5922,30 +6033,28 @@
         <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="50" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
-        <v>215</v>
-      </c>
+      <c r="A43" s="47"/>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>13</v>
@@ -5954,7 +6063,7 @@
         <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
@@ -5963,19 +6072,21 @@
         <v>11</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" s="50" t="s">
-        <v>223</v>
+        <v>115</v>
+      </c>
+      <c r="I43" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
+      <c r="A44" s="47" t="s">
+        <v>215</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C44" s="48" t="s">
         <v>13</v>
@@ -5984,47 +6095,65 @@
         <v>117</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="47" t="s">
-        <v>11</v>
+      <c r="H44" s="50" t="s">
+        <v>218</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="47"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="47"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
@@ -6034,8 +6163,8 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6047,7 +6176,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6076,7 +6205,7 @@
     </row>
     <row r="51" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="10"/>
       <c r="E51" s="4"/>
@@ -6088,7 +6217,7 @@
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="10"/>
       <c r="E52" s="4"/>
@@ -6106,25 +6235,25 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="D54" s="10"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="5"/>
       <c r="D55" s="10"/>
       <c r="E55" s="4"/>
@@ -6142,7 +6271,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" s="4"/>
     </row>
@@ -6154,7 +6283,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="4"/>
     </row>
@@ -6167,7 +6296,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6179,7 +6308,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6191,7 +6320,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,7 +6344,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6225,8 +6354,8 @@
       <c r="D63" s="10"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="4"/>
     </row>
@@ -6237,7 +6366,7 @@
       <c r="D64" s="10"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="4"/>
@@ -6285,7 +6414,7 @@
       <c r="D68" s="10"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="4"/>
@@ -6297,7 +6426,7 @@
       <c r="D69" s="10"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="4"/>
@@ -6371,7 +6500,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6383,7 +6512,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6418,8 +6547,8 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6430,8 +6559,8 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6443,7 +6572,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6455,7 +6584,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6466,7 +6595,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="4"/>
     </row>
@@ -6478,7 +6607,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="9"/>
       <c r="J84" s="4"/>
     </row>
@@ -6526,13 +6655,13 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="10"/>
       <c r="E89" s="4"/>
@@ -6544,26 +6673,26 @@
     </row>
     <row r="90" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="5"/>
       <c r="D90" s="10"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="5"/>
       <c r="D91" s="10"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6574,7 +6703,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="9"/>
       <c r="J92" s="4"/>
     </row>
@@ -6586,7 +6715,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="4"/>
     </row>
@@ -6635,7 +6764,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6659,7 +6788,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6724,26 +6853,26 @@
     </row>
     <row r="105" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="7"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="5"/>
       <c r="D105" s="10"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="5"/>
       <c r="D106" s="10"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6754,8 +6883,8 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6766,36 +6895,48 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="8"/>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="5"/>
       <c r="D109" s="10"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="8"/>
       <c r="J109" s="4"/>
     </row>
+    <row r="110" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="8"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J42"/>
+  <autoFilter ref="A6:J43"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:D109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D110">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D43">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C110">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F110">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24280" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -3244,15 +3244,6 @@
   </si>
   <si>
     <t>{
-id: '', //UUID
-fileName: '',
-fileType: '',
-fileSize: 0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 src: '',
 deviceId: '',
 tartType: '',
@@ -3289,116 +3280,6 @@
 chatMessageId: ''
 }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-id: '',
-messageType: '',
-message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: 0}两种
-sentTime: 0,
-sender: {
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-}
-}]</t>
-    <rPh sb="44" eb="45">
-      <t>gen ju</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>lei x</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>er</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>bu tong</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>de</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>xiao xi</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>nei r</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>jie gou</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>mu q</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>you</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>wen b</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>xiao xi</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>he</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>fu jian</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>xiao xi</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>liang zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-id: '',
-messageType: '',
-message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: 0}两种
-sentTime: 0,
-sender: {
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-}
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[{
-id: '',
-name: '',
-desc: '',
-creator: {
-id: '',
-code: '',
-nickName: '',
-eiimCode: ''
-},
-members: [{
-id: '',
-status: '',
-account: {}
-}],
-messages: [{
-id: '',
-messageType: '',
-message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileSize: 0}两种
-sentTime: 0,
-sender: {
-id: '',
-code: '',
-nickname: '',
-avatar: ''
-}
-}]
-}]
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4020,6 +3901,126 @@
     <rPh sb="45" eb="46">
       <t>liao tian shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id: '', //UUID
+fileName: '',
+fileType: '',
+fileDescribe: '',
+fileSize: 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+id: '',
+name: '',
+desc: '',
+creator: {
+id: '',
+code: '',
+nickName: '',
+eiimCode: ''
+},
+members: [{
+id: '',
+status: '',
+account: {}
+}],
+messages: [{
+id: '',
+messageType: '',
+message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileDescribe: '', fileSize: 0}两种
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]
+}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+messageType: '',
+message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileDescribe: '', fileSize: 0}两种
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]</t>
+    <rPh sb="44" eb="45">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>er</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>de</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>mu q</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>wen b</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>he</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>fu jian</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>liang zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: '',
+messageType: '',
+message: {}, // 根据类型而不同的消息内容结构，目前有：文本消息{text: ''}和附件消息{id: '', fileName: '', fileType: '', fileDescribe: '', fileSize: 0}两种
+sentTime: 0,
+sender: {
+id: '',
+code: '',
+nickname: '',
+avatar: ''
+}
+}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4874,10 +4875,10 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5051,7 +5052,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>84</v>
@@ -5060,7 +5061,7 @@
     <row r="10" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>13</v>
@@ -5069,7 +5070,7 @@
         <v>117</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>12</v>
@@ -5081,16 +5082,16 @@
         <v>11</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>13</v>
@@ -5099,28 +5100,28 @@
         <v>117</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>13</v>
@@ -5129,7 +5130,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>27</v>
@@ -5138,13 +5139,13 @@
         <v>11</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I12" s="43" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5332,7 +5333,7 @@
     <row r="19" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>13</v>
@@ -5341,13 +5342,13 @@
         <v>117</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>11</v>
@@ -5356,7 +5357,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5440,7 +5441,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>81</v>
@@ -5470,10 +5471,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>91</v>
@@ -5542,7 +5543,7 @@
     <row r="26" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
       <c r="B26" s="40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>13</v>
@@ -5551,13 +5552,13 @@
         <v>117</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F26" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>11</v>
@@ -5566,7 +5567,7 @@
         <v>81</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5925,7 +5926,7 @@
         <v>11</v>
       </c>
       <c r="I38" s="50" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>100</v>
@@ -5955,7 +5956,7 @@
         <v>214</v>
       </c>
       <c r="I39" s="50" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>208</v>
@@ -5964,7 +5965,7 @@
     <row r="40" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
       <c r="B40" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>13</v>
@@ -5973,7 +5974,7 @@
         <v>117</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F40" s="40" t="s">
         <v>14</v>
@@ -5985,10 +5986,10 @@
         <v>214</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6015,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>201</v>
@@ -6107,7 +6108,7 @@
         <v>218</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>222</v>
@@ -7156,7 +7157,7 @@
         <v>189</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>175</v>
@@ -7174,7 +7175,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>174</v>
@@ -7194,7 +7195,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>205</v>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/workspace/git/EIIM/design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/workspace/git/fs/EIIM/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NOTIFY 接口设计" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$38</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="234">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3470,6 +3470,33 @@
 nickname: '',
 avatar: ''
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改账户的头像信息</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/accounts/{accountId}/avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatarId=uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4318,13 +4345,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4348,8 +4375,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="13">
-        <f>COUNTIF(D7:D104, "已完成")</f>
-        <v>33</v>
+        <f>COUNTIF(D7:D105, "已完成")</f>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,7 +4384,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="13">
-        <f>COUNTIF(D7:D104, "正在开发")</f>
+        <f>COUNTIF(D7:D105, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -4366,7 +4393,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D104, "未测试")</f>
+        <f>COUNTIF(D7:D105, "未测试")</f>
         <v>0</v>
       </c>
     </row>
@@ -4375,7 +4402,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="13">
-        <f>COUNTIF(D7:D104, "未开始")</f>
+        <f>COUNTIF(D7:D105, "未开始")</f>
         <v>0</v>
       </c>
     </row>
@@ -4897,11 +4924,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
@@ -4910,28 +4935,28 @@
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="I23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>13</v>
@@ -4940,7 +4965,7 @@
         <v>117</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -4955,73 +4980,73 @@
         <v>112</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40" t="s">
+    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D26" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E26" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F26" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H26" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I26" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J26" s="44" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -5030,28 +5055,28 @@
         <v>117</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>13</v>
@@ -5060,28 +5085,28 @@
         <v>117</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>13</v>
@@ -5090,28 +5115,28 @@
         <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
@@ -5120,28 +5145,28 @@
         <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="9" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>13</v>
@@ -5150,28 +5175,28 @@
         <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>113</v>
+        <v>11</v>
+      </c>
+      <c r="I31" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>13</v>
@@ -5180,7 +5205,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>27</v>
@@ -5189,19 +5214,19 @@
         <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="47" t="s">
-        <v>55</v>
+      <c r="B33" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>13</v>
@@ -5210,88 +5235,88 @@
         <v>117</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="H34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="48" t="s">
+    <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C35" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D35" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E35" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F35" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H35" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I35" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J35" s="40" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
+      <c r="B36" s="47" t="s">
+        <v>196</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>13</v>
@@ -5300,7 +5325,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>12</v>
@@ -5312,16 +5337,16 @@
         <v>11</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>13</v>
@@ -5330,30 +5355,28 @@
         <v>117</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="9" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>215</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="4" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -5362,7 +5385,7 @@
         <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -5371,19 +5394,21 @@
         <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>223</v>
+        <v>115</v>
+      </c>
+      <c r="I38" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="B39" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
@@ -5392,35 +5417,53 @@
         <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="H39" s="9" t="s">
         <v>218</v>
       </c>
+      <c r="I39" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="J39" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -5430,8 +5473,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5442,8 +5485,8 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5455,7 +5498,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5484,7 +5527,7 @@
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="10"/>
       <c r="E46" s="4"/>
@@ -5496,7 +5539,7 @@
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="10"/>
       <c r="E47" s="4"/>
@@ -5514,25 +5557,25 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10"/>
       <c r="E50" s="4"/>
@@ -5550,7 +5593,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
     </row>
@@ -5562,7 +5605,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="4"/>
     </row>
@@ -5575,7 +5618,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,7 +5630,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5599,7 +5642,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,7 +5666,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5633,8 +5676,8 @@
       <c r="D58" s="10"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="4"/>
     </row>
@@ -5645,7 +5688,7 @@
       <c r="D59" s="10"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="4"/>
@@ -5693,7 +5736,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="4"/>
@@ -5705,7 +5748,7 @@
       <c r="D64" s="10"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="4"/>
@@ -5779,7 +5822,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5791,7 +5834,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5826,8 +5869,8 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,8 +5881,8 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5851,7 +5894,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5863,7 +5906,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,7 +5917,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="4"/>
     </row>
@@ -5886,7 +5929,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="4"/>
     </row>
@@ -5934,13 +5977,13 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="5"/>
       <c r="D84" s="10"/>
       <c r="E84" s="4"/>
@@ -5952,26 +5995,26 @@
     </row>
     <row r="85" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="5"/>
       <c r="D85" s="10"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="10"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5982,7 +6025,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="J87" s="4"/>
     </row>
@@ -5994,7 +6037,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="4"/>
     </row>
@@ -6043,7 +6086,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6067,7 +6110,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6132,26 +6175,26 @@
     </row>
     <row r="100" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100" s="10"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="5"/>
       <c r="D101" s="10"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6162,8 +6205,8 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,36 +6217,48 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="8"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="5"/>
       <c r="D104" s="10"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="4"/>
     </row>
+    <row r="105" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J37"/>
+  <autoFilter ref="A6:J38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D105">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D38">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C105">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F105">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/前后端接口设计.xlsx
+++ b/design/前后端接口设计.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="236">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3497,6 +3497,32 @@
   </si>
   <si>
     <t>avatarId=uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载指定账户的头像文件</t>
+    <rPh sb="0" eb="1">
+      <t>xia z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/download/avatar/{accountId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4348,10 +4374,10 @@
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4376,7 +4402,7 @@
       </c>
       <c r="D1" s="13">
         <f>COUNTIF(D7:D105, "已完成")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,15 +5493,33 @@
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
